--- a/src/attributions/attributions_saliency_traj_81.xlsx
+++ b/src/attributions/attributions_saliency_traj_81.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.00140379136428237</v>
+        <v>0.07020905613899231</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00357787124812603</v>
+        <v>0.6487566232681274</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00675129983574152</v>
+        <v>0.03047627210617065</v>
       </c>
       <c r="D2" t="n">
-        <v>0.00246713194064796</v>
+        <v>0.0850573405623436</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001349512720480561</v>
+        <v>0.08047193288803101</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00167812081053853</v>
+        <v>0.08449524641036987</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0009468536009080708</v>
+        <v>0.2080699801445007</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000495815766043961</v>
+        <v>0.2492536604404449</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002365961438044906</v>
+        <v>0.42540243268013</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001554995658807456</v>
+        <v>0.07465451210737228</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002625404624268413</v>
+        <v>0.5601475834846497</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007110790349543095</v>
+        <v>0.01850273087620735</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00188847363460809</v>
+        <v>0.3031962811946869</v>
       </c>
       <c r="N2" t="n">
-        <v>0.001035487512126565</v>
+        <v>0.05210050195455551</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001155470730736852</v>
+        <v>0.06150791794061661</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001809017267078161</v>
+        <v>0.2379152923822403</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.003475326113402843</v>
+        <v>0.200376033782959</v>
       </c>
       <c r="R2" t="n">
-        <v>0.006045931950211525</v>
+        <v>0.4118303656578064</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001919841160997748</v>
+        <v>0.004137981217354536</v>
       </c>
       <c r="T2" t="n">
-        <v>6.604069494642317e-05</v>
+        <v>0.09910774230957031</v>
       </c>
       <c r="U2" t="n">
-        <v>0.002591249998658895</v>
+        <v>0.02565426751971245</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002927946916315705</v>
+        <v>0.04193956032395363</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0002654704439919442</v>
+        <v>0.08043920993804932</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001192616648040712</v>
+        <v>0.07157657295465469</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.623301982879639e-05</v>
+        <v>0.01364984456449747</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001417261431924999</v>
+        <v>0.04631437361240387</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.002293733414262533</v>
+        <v>0.03205519914627075</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0002432296751067042</v>
+        <v>0.05711104348301888</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.002376740798354149</v>
+        <v>0.05225816741585732</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0005142156733199954</v>
+        <v>0.1674928665161133</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0004858373431488872</v>
+        <v>0.006820600479841232</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.001050951890647411</v>
+        <v>0.1457177102565765</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.003813695861026645</v>
+        <v>0.120751328766346</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.001149150193668902</v>
+        <v>0.0106296194717288</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.003074249485507607</v>
+        <v>0.1299783438444138</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.004335748963057995</v>
+        <v>0.1320647150278091</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0004262351721990854</v>
+        <v>0.05853741243481636</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.001638531452044845</v>
+        <v>0.02940265834331512</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.002677782904356718</v>
+        <v>0.00969654880464077</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.001213356619700789</v>
+        <v>0.06120211631059647</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.00136580818798393</v>
+        <v>0.007105840370059013</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0005177297862246633</v>
+        <v>0.02998600155115128</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0002833048929460347</v>
+        <v>0.009127735160291195</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0004992567119188607</v>
+        <v>0.01264873519539833</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.001650834688916802</v>
+        <v>0.005668124184012413</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.001816730946302414</v>
+        <v>0.05467565357685089</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.003853341098874807</v>
+        <v>0.4572664797306061</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.00755578838288784</v>
+        <v>0.07591357827186584</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.004884642083197832</v>
+        <v>0.1210866197943687</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.004073557909578085</v>
+        <v>0.1745174825191498</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.003903990611433983</v>
+        <v>0.0130835548043251</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0003926664940081537</v>
+        <v>0.1726005673408508</v>
       </c>
       <c r="BA2" t="n">
-        <v>3.589550033211708e-06</v>
+        <v>0.08916446566581726</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.002339332830160856</v>
+        <v>0.1206597462296486</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0002790697035379708</v>
+        <v>0.08421188592910767</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0006702957325614989</v>
+        <v>0.09106536209583282</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.001490844297222793</v>
+        <v>0.07450021803379059</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.000553441233932972</v>
+        <v>0.04937668889760971</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.00489573972299695</v>
+        <v>0.03618676587939262</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0004099088255316019</v>
+        <v>0.1072970777750015</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.001050445367582142</v>
+        <v>0.02472755499184132</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.001828928710892797</v>
+        <v>0.01224677264690399</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.001878223731182516</v>
+        <v>0.2646457552909851</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0003055537235923111</v>
+        <v>0.08263009041547775</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0002743879449553788</v>
+        <v>0.03381972759962082</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.00276292348280549</v>
+        <v>0.02357932925224304</v>
       </c>
       <c r="BO2" t="n">
-        <v>4.000344779342413e-05</v>
+        <v>0.00453877029940486</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0004020886262878776</v>
+        <v>0.263441413640976</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.001762637053616345</v>
+        <v>0.1028799712657928</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.0004432964196894318</v>
+        <v>0.0683199018239975</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0007624070858582854</v>
+        <v>0.04362655803561211</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.001545055536553264</v>
+        <v>0.05050981789827347</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.001005818718113005</v>
+        <v>0.03686298802495003</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.001914808293804526</v>
+        <v>0.2666178345680237</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.003520186292007565</v>
+        <v>0.06267877668142319</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0009704361436888576</v>
+        <v>0.04142360761761665</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.001779028680175543</v>
+        <v>0.06415822356939316</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.001568670966662467</v>
+        <v>0.04088474437594414</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.002175625180825591</v>
+        <v>0.09535863995552063</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0005175884580239654</v>
+        <v>0.08452614396810532</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.001016617519780993</v>
+        <v>0.05895891785621643</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0002127370680682361</v>
+        <v>0.003969223238527775</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.002161567565053701</v>
+        <v>0.1023536995053291</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.001357483444735408</v>
+        <v>0.0168111938983202</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0007578849326819181</v>
+        <v>0.0350419394671917</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0006384412990882993</v>
+        <v>0.03127208352088928</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.744186192809138e-05</v>
+        <v>0.006376609206199646</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0001125684648286551</v>
+        <v>0.03608233481645584</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0002348133129999042</v>
+        <v>0.01749134436249733</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0002849369484465569</v>
+        <v>0.09107811748981476</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.0006341640837490559</v>
+        <v>0.02585260570049286</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.00400666706264019</v>
+        <v>0.07903662323951721</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.0004984569968655705</v>
+        <v>0.007390481885522604</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.004121226724237204</v>
+        <v>0.1228092908859253</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.005617208778858185</v>
+        <v>0.1624604165554047</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.000911604380235076</v>
+        <v>0.08796752244234085</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0015574109274894</v>
+        <v>0.02437302283942699</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.000328414054820314</v>
+        <v>0.09544286131858826</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.003289043670520186</v>
+        <v>0.1195762231945992</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0002938849502243102</v>
+        <v>0.0002684115897864103</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.002000808250159025</v>
+        <v>0.1216698214411736</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0009265673579648137</v>
+        <v>0.04375426098704338</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0002557687985245138</v>
+        <v>0.02964390255510807</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.001074046827852726</v>
+        <v>0.03707441315054893</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0009151230333372951</v>
+        <v>0.002252088859677315</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0004305859038140625</v>
+        <v>0.03992631286382675</v>
       </c>
       <c r="DC2" t="n">
-        <v>7.7336240792647e-05</v>
+        <v>0.01547718327492476</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.0001697712868917733</v>
+        <v>0.06166895106434822</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.003153258934617043</v>
+        <v>0.07861444354057312</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.007145736366510391</v>
+        <v>0.1274753212928772</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.005777087993919849</v>
+        <v>0.05623171851038933</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.003863259451463819</v>
+        <v>0.1392171382904053</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.002620436251163483</v>
+        <v>0.00438418798148632</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.003099710680544376</v>
+        <v>0.005496605765074492</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.001048576319590211</v>
+        <v>0.04386424273252487</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0001320673618465662</v>
+        <v>0.03053396195173264</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0006270965095609426</v>
+        <v>0.03343762084841728</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0009188580443151295</v>
+        <v>0.08050775527954102</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0009959249291568995</v>
+        <v>0.09232806414365768</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.002849962096661329</v>
+        <v>0.005429161712527275</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0001501858205301687</v>
+        <v>0.08708608150482178</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.003785062581300735</v>
+        <v>0.0631997287273407</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.002457998227328062</v>
+        <v>0.01440035924315453</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.00212370790541172</v>
+        <v>0.09019777178764343</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.001564087462611496</v>
+        <v>0.01213292591273785</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.001972479745745659</v>
+        <v>0.1464402079582214</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0007896589813753963</v>
+        <v>0.05017918720841408</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0002211009705206379</v>
+        <v>0.1161086708307266</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0009907245403155684</v>
+        <v>0.01116050686687231</v>
       </c>
       <c r="DZ2" t="n">
-        <v>5.778315244242549e-05</v>
+        <v>0.04230877757072449</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.001118467305786908</v>
+        <v>0.07139588892459869</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.001275673625059426</v>
+        <v>0.03423966839909554</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0002585405018180609</v>
+        <v>0.0009175166487693787</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0006249266443774104</v>
+        <v>0.09126149117946625</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.002920469967648387</v>
+        <v>0.01288665644824505</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0001046433462761343</v>
+        <v>0.02685352228581905</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.002123389393091202</v>
+        <v>0.001729525625705719</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0001579764648340642</v>
+        <v>0.04767151921987534</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.000296015030471608</v>
+        <v>0.02284050174057484</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0002603968605399132</v>
+        <v>0.1302188634872437</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.002517140470445156</v>
+        <v>0.00805626530200243</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0004800193710252643</v>
+        <v>0.04678854718804359</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0004694950475823134</v>
+        <v>0.08155959099531174</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.0004303901514504105</v>
+        <v>0.1017944067716599</v>
       </c>
       <c r="EO2" t="n">
-        <v>4.909437848255038e-05</v>
+        <v>0.0351814366877079</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.000881892628967762</v>
+        <v>0.00127063225954771</v>
       </c>
       <c r="EQ2" t="n">
-        <v>4.892637662123889e-05</v>
+        <v>0.05908995121717453</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.001771680894307792</v>
+        <v>0.1300375908613205</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.001443590619601309</v>
+        <v>0.06115130335092545</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0006539087044075131</v>
+        <v>0.05651354417204857</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0002132653025910258</v>
+        <v>0.005614995956420898</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0001166590955108404</v>
+        <v>0.03017267026007175</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0002238647430203855</v>
+        <v>0.05004310980439186</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0005545797175727785</v>
+        <v>0.01312299072742462</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.001708715688437223</v>
+        <v>0.1139889135956764</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0008014302002266049</v>
+        <v>0.02107577957212925</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0006667693960480392</v>
+        <v>0.00190312578342855</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0009393059881404042</v>
+        <v>0.0244462639093399</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0001448986877221614</v>
+        <v>0.01548696868121624</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0006592829013243318</v>
+        <v>0.05194130539894104</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0003986718656960875</v>
+        <v>0.01281412318348885</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.0001316702109761536</v>
+        <v>0.07370483875274658</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0008306992240250111</v>
+        <v>0.003232622519135475</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.00127413822337985</v>
+        <v>0.07450377196073532</v>
       </c>
       <c r="FI2" t="n">
-        <v>6.295711500570178e-05</v>
+        <v>0.02668399922549725</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0006069436203688383</v>
+        <v>0.0236673504114151</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.000174219225300476</v>
+        <v>0.1820880919694901</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.00155964121222496</v>
+        <v>0.01832257956266403</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.00190968974493444</v>
+        <v>0.01732836849987507</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.003182766959071159</v>
+        <v>0.02262798696756363</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0007708353223279119</v>
+        <v>0.07654521614313126</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.007235252298414707</v>
+        <v>0.03826713934540749</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0002194933185819536</v>
+        <v>0.1825832724571228</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.002985541243106127</v>
+        <v>0.004152100533246994</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.002721787896007299</v>
+        <v>0.08067534118890762</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.001886104000732303</v>
+        <v>0.09465967118740082</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.002451824024319649</v>
+        <v>0.03722536191344261</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.004831245169043541</v>
+        <v>0.07109362632036209</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.001028669183142483</v>
+        <v>0.06496850401163101</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003290050895884633</v>
+        <v>0.07481802999973297</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.001804513158276677</v>
+        <v>0.05687084794044495</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.001764311222359538</v>
+        <v>0.08184947073459625</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.001522970735095441</v>
+        <v>0.01407152973115444</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0001515536569058895</v>
+        <v>0.06984031200408936</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.003284289035946131</v>
+        <v>0.1015651673078537</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0003784819273278117</v>
+        <v>0.07590136677026749</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.001025986624881625</v>
+        <v>0.05251242592930794</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0003151874698232859</v>
+        <v>0.009639736264944077</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.001918674912303686</v>
+        <v>0.01624035462737083</v>
       </c>
     </row>
     <row r="3">
@@ -2711,571 +2711,571 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01318114623427391</v>
+        <v>0.03264297544956207</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08273498713970184</v>
+        <v>0.619964599609375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4626289010047913</v>
+        <v>0.07405433058738708</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1973788738250732</v>
+        <v>0.2031481266021729</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1872003823518753</v>
+        <v>0.08285133540630341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1452880203723907</v>
+        <v>0.09346573054790497</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1445983201265335</v>
+        <v>0.2839886546134949</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02279798686504364</v>
+        <v>0.0376201719045639</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08773025870323181</v>
+        <v>0.01950432173907757</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04571925848722458</v>
+        <v>0.112714558839798</v>
       </c>
       <c r="K5" t="n">
-        <v>0.03146917372941971</v>
+        <v>0.5556818842887878</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4204516410827637</v>
+        <v>0.03684507682919502</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2098934799432755</v>
+        <v>0.2629537284374237</v>
       </c>
       <c r="N5" t="n">
-        <v>0.03796608746051788</v>
+        <v>0.06763920187950134</v>
       </c>
       <c r="O5" t="n">
-        <v>0.03363165259361267</v>
+        <v>0.1551095247268677</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1145580559968948</v>
+        <v>0.2534741759300232</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03991897404193878</v>
+        <v>0.09901884943246841</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1089091524481773</v>
+        <v>0.001966154202818871</v>
       </c>
       <c r="S5" t="n">
-        <v>0.02722642198204994</v>
+        <v>0.05584324151277542</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08661672472953796</v>
+        <v>0.07318592071533203</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01670422218739986</v>
+        <v>0.0480097234249115</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001545604318380356</v>
+        <v>0.01536856964230537</v>
       </c>
       <c r="W5" t="n">
-        <v>0.09659451991319656</v>
+        <v>0.0845988467335701</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01841565035283566</v>
+        <v>0.02030616067349911</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.02186441421508789</v>
+        <v>0.003534365445375443</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.09381213039159775</v>
+        <v>0.06259704381227493</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.023491520434618</v>
+        <v>0.09190671890974045</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.06739986687898636</v>
+        <v>0.01272455602884293</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.04064912348985672</v>
+        <v>0.03861488401889801</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.02494263462722301</v>
+        <v>0.03158246725797653</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.06858287006616592</v>
+        <v>0.04685376957058907</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02630111575126648</v>
+        <v>0.04530632868409157</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.04462181031703949</v>
+        <v>0.07313006371259689</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.005140151828527451</v>
+        <v>0.01730412244796753</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.05762022733688354</v>
+        <v>0.005397798493504524</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.1451996862888336</v>
+        <v>0.04169329628348351</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.06681133806705475</v>
+        <v>0.05148806795477867</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.04039084911346436</v>
+        <v>0.07558112591505051</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1271886676549911</v>
+        <v>0.01295486651360989</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.02964393794536591</v>
+        <v>0.02769482880830765</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.01147952117025852</v>
+        <v>0.02148770727217197</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.07071715593338013</v>
+        <v>0.03264578431844711</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.04106667637825012</v>
+        <v>0.03336608409881592</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.05266108736395836</v>
+        <v>0.01236812770366669</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0172495748847723</v>
+        <v>0.04026047512888908</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.05900922417640686</v>
+        <v>0.08574257791042328</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.1097329407930374</v>
+        <v>0.4348281025886536</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.2440068423748016</v>
+        <v>0.06031670421361923</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.06513364613056183</v>
+        <v>0.06099729612469673</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.009049020707607269</v>
+        <v>0.058426633477211</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.008170280605554581</v>
+        <v>0.01776907593011856</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0473402738571167</v>
+        <v>0.1853493750095367</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.1329298317432404</v>
+        <v>0.02765889279544353</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.1071465089917183</v>
+        <v>0.07481499761343002</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.04650385677814484</v>
+        <v>0.01934673264622688</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.01632175408303738</v>
+        <v>0.1639454960823059</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.1120471209287643</v>
+        <v>0.1572205424308777</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.1318283677101135</v>
+        <v>0.07670669257640839</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.1552094519138336</v>
+        <v>0.09195440262556076</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.1201589107513428</v>
+        <v>0.07629325985908508</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0757594034075737</v>
+        <v>0.00686059333384037</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.1344423294067383</v>
+        <v>0.08863827586174011</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0006363303400576115</v>
+        <v>0.02229546941816807</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.03035495057702065</v>
+        <v>0.02137655019760132</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.02879609540104866</v>
+        <v>0.04392371699213982</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.121120996773243</v>
+        <v>0.0604507252573967</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.05415322631597519</v>
+        <v>0.09775357693433762</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.05624547600746155</v>
+        <v>0.1431774795055389</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.02697404846549034</v>
+        <v>0.006363257765769958</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.03219673782587051</v>
+        <v>0.06516312807798386</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0141477407887578</v>
+        <v>0.07195721566677094</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.03970228880643845</v>
+        <v>0.000350679736584425</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.05261731892824173</v>
+        <v>0.03932300209999084</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.02976013347506523</v>
+        <v>0.1953675150871277</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.1317821443080902</v>
+        <v>0.06299888342618942</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.006581100169569254</v>
+        <v>0.02267098426818848</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.01260848715901375</v>
+        <v>0.0236281119287014</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.09803727269172668</v>
+        <v>0.02253672853112221</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.04163806512951851</v>
+        <v>0.05480369180440903</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.06438051909208298</v>
+        <v>0.05170721933245659</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.04262935370206833</v>
+        <v>0.06650853902101517</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.04008511453866959</v>
+        <v>0.006139322184026241</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.03907729685306549</v>
+        <v>0.1123599633574486</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.09074432402849197</v>
+        <v>0.05161983892321587</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.02988570742309093</v>
+        <v>0.03459374606609344</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.02130253612995148</v>
+        <v>0.004298896063119173</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.03839600831270218</v>
+        <v>0.0005652706604450941</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.04250184819102287</v>
+        <v>0.06866946816444397</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.01647763140499592</v>
+        <v>0.003072809427976608</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.02431942336261272</v>
+        <v>0.03839148208498955</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.01374543830752373</v>
+        <v>0.136482298374176</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.03213848918676376</v>
+        <v>0.110665038228035</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.009503182955086231</v>
+        <v>0.01047609001398087</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.06537363678216934</v>
+        <v>0.1006714701652527</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.01584793627262115</v>
+        <v>0.1286185681819916</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.07613059878349304</v>
+        <v>0.01024883426725864</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0529928170144558</v>
+        <v>0.003800641745328903</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.01194997783750296</v>
+        <v>0.04158187657594681</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.1799177229404449</v>
+        <v>0.04404320940375328</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.03416221961379051</v>
+        <v>0.007415028288960457</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.01927090808749199</v>
+        <v>0.1014657616615295</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.08191299438476562</v>
+        <v>0.05240579321980476</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.02745207026600838</v>
+        <v>0.0771278589963913</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0390855148434639</v>
+        <v>0.01464698649942875</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.03715479746460915</v>
+        <v>0.002549427095800638</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.03330957889556885</v>
+        <v>0.07816208153963089</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.02382380701601505</v>
+        <v>0.0134368697181344</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.02449198812246323</v>
+        <v>0.02678997628390789</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.06552155315876007</v>
+        <v>0.002974427305161953</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.1323822885751724</v>
+        <v>0.06299444288015366</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.04616176337003708</v>
+        <v>0.02791481837630272</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.002285975962877274</v>
+        <v>0.1573687493801117</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.1197579801082611</v>
+        <v>0.01489017251878977</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.01911728084087372</v>
+        <v>0.007379030808806419</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.1221521198749542</v>
+        <v>0.04442580789327621</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0008694068528711796</v>
+        <v>0.00866230484098196</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.02032535150647163</v>
+        <v>0.05736644566059113</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.02010510675609112</v>
+        <v>0.03265504166483879</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.1134502366185188</v>
+        <v>0.06107594445347786</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.03105240315198898</v>
+        <v>0.04677552357316017</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.06164877861738205</v>
+        <v>0.01378409750759602</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.03598442301154137</v>
+        <v>0.07685360312461853</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.007745975628495216</v>
+        <v>0.004091537557542324</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0580114871263504</v>
+        <v>0.02937308885157108</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.02583681419491768</v>
+        <v>0.04660547897219658</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.02939720079302788</v>
+        <v>0.03342596441507339</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.05917942896485329</v>
+        <v>0.007805837318301201</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.02993336692452431</v>
+        <v>0.06675083935260773</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.07696069777011871</v>
+        <v>0.01815747283399105</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.05032461136579514</v>
+        <v>0.05543722584843636</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01044898293912411</v>
+        <v>0.02070312947034836</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.02295792475342751</v>
+        <v>0.03590717166662216</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.04698842763900757</v>
+        <v>0.002587012015283108</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.02745424769818783</v>
+        <v>0.01487414166331291</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.05738832801580429</v>
+        <v>0.01974146813154221</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.02243317477405071</v>
+        <v>0.0193457156419754</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.03867895156145096</v>
+        <v>0.08539398014545441</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.07131081074476242</v>
+        <v>0.04180185496807098</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.08246570825576782</v>
+        <v>0.04008305072784424</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.07833455502986908</v>
+        <v>0.05060658603906631</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.07546154409646988</v>
+        <v>0.004476836882531643</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.02419447898864746</v>
+        <v>0.08415945619344711</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.009282056242227554</v>
+        <v>0.000751761719584465</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.008719148114323616</v>
+        <v>0.01913252659142017</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.00646752305328846</v>
+        <v>0.0518944151699543</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0395970493555069</v>
+        <v>0.03403031453490257</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.02022607438266277</v>
+        <v>0.08869937062263489</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.02186854183673859</v>
+        <v>0.06378927081823349</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.04526965320110321</v>
+        <v>0.03923249989748001</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.03363066911697388</v>
+        <v>0.04682912677526474</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.03220804035663605</v>
+        <v>0.08183937519788742</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.01137516461312771</v>
+        <v>0.06482462584972382</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.07248471677303314</v>
+        <v>0.001105654169805348</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.04502997174859047</v>
+        <v>0.01747251115739346</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.00825387891381979</v>
+        <v>0.09821975231170654</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.08161729574203491</v>
+        <v>0.04098863899707794</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.01654385030269623</v>
+        <v>0.05469114705920219</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.02982052229344845</v>
+        <v>0.02342677675187588</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.02910829894244671</v>
+        <v>0.004340716172009706</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.03483181819319725</v>
+        <v>0.08692050725221634</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.02121984399855137</v>
+        <v>0.006528727244585752</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.0165402926504612</v>
+        <v>0.04401789978146553</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.01121747121214867</v>
+        <v>0.03324390575289726</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.01732901111245155</v>
+        <v>0.008509639650583267</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.07463967055082321</v>
+        <v>0.06705372035503387</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.01372088491916656</v>
+        <v>0.01655101403594017</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.09355390816926956</v>
+        <v>0.03447916358709335</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.07885260879993439</v>
+        <v>0.03219974413514137</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.05731439217925072</v>
+        <v>0.004858138971030712</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.03250068053603172</v>
+        <v>0.04336211085319519</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.02676288783550262</v>
+        <v>0.05369169265031815</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.1154508143663406</v>
+        <v>0.07303883880376816</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.01402360294014215</v>
+        <v>0.09902017563581467</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.03415193408727646</v>
+        <v>0.1000688895583153</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.001515762880444527</v>
+        <v>0.09377869218587875</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.007507277186959982</v>
+        <v>0.04789320752024651</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.1217878833413124</v>
+        <v>0.004518410190939903</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.09970256686210632</v>
+        <v>0.003994235768914223</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.03686090931296349</v>
+        <v>0.02768679149448872</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.006912326440215111</v>
+        <v>0.06307300180196762</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.01166371442377567</v>
+        <v>0.08303193747997284</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.02394689247012138</v>
+        <v>0.07679401338100433</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.01138947159051895</v>
+        <v>0.007359413430094719</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.006801737006753683</v>
+        <v>0.03978590667247772</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.08942098170518875</v>
+        <v>0.04350365325808525</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.06596344709396362</v>
+        <v>0.03788527846336365</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.02696407586336136</v>
+        <v>0.1593970656394958</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.03301661461591721</v>
+        <v>0.1154135689139366</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.006103973370045424</v>
+        <v>0.01961808279156685</v>
       </c>
     </row>
     <row r="6">
@@ -3849,4554 +3849,4554 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3766312301158905</v>
+        <v>0.4296889305114746</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0758204311132431</v>
+        <v>3.317833423614502</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2231353223323822</v>
+        <v>0.1261774599552155</v>
       </c>
       <c r="D7" t="n">
-        <v>0.151576817035675</v>
+        <v>3.060757398605347</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1651348173618317</v>
+        <v>0.1742200404405594</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03609593212604523</v>
+        <v>0.7456098794937134</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06679150462150574</v>
+        <v>0.1055325120687485</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02613307163119316</v>
+        <v>0.3917349576950073</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06786864995956421</v>
+        <v>0.3040046095848083</v>
       </c>
       <c r="J7" t="n">
-        <v>0.375881016254425</v>
+        <v>0.1596112102270126</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01497073657810688</v>
+        <v>2.711395740509033</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2603898644447327</v>
+        <v>0.2801417708396912</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1306822896003723</v>
+        <v>2.74517297744751</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07291710376739502</v>
+        <v>0.1811942160129547</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03045284561812878</v>
+        <v>1.125648617744446</v>
       </c>
       <c r="P7" t="n">
-        <v>0.06715333461761475</v>
+        <v>0.02703186869621277</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01242702826857567</v>
+        <v>0.4063643515110016</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07896541059017181</v>
+        <v>0.6216322779655457</v>
       </c>
       <c r="S7" t="n">
-        <v>0.035736083984375</v>
+        <v>0.2966461479663849</v>
       </c>
       <c r="T7" t="n">
-        <v>0.03367195278406143</v>
+        <v>0.2052700072526932</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03634846955537796</v>
+        <v>0.1209668815135956</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03499816730618477</v>
+        <v>0.4329040348529816</v>
       </c>
       <c r="W7" t="n">
-        <v>0.00877776276320219</v>
+        <v>0.2342905402183533</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02059929072856903</v>
+        <v>0.1055474728345871</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002572984667494893</v>
+        <v>0.310632199048996</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.004152115900069475</v>
+        <v>0.6225250959396362</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01873446255922318</v>
+        <v>0.547400951385498</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.04160773381590843</v>
+        <v>0.3225113153457642</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.04336564987897873</v>
+        <v>0.03995153307914734</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.02501927874982357</v>
+        <v>0.4085570871829987</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.07798518240451813</v>
+        <v>0.4806971549987793</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02174254134297371</v>
+        <v>0.3372186124324799</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.01855884492397308</v>
+        <v>0.2043980062007904</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0289888046681881</v>
+        <v>0.1028364673256874</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.01941217109560966</v>
+        <v>0.2674514353275299</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.01428451016545296</v>
+        <v>0.4191342294216156</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.06077403575181961</v>
+        <v>0.03679867461323738</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.06181355938315392</v>
+        <v>0.3402172327041626</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.02819360978901386</v>
+        <v>0.02785783633589745</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.02883516624569893</v>
+        <v>0.2864362299442291</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.595561717404053e-05</v>
+        <v>0.1472232043743134</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.009489567019045353</v>
+        <v>0.175244465470314</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.008369023911654949</v>
+        <v>0.2276480793952942</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.07847585529088974</v>
+        <v>0.1072618216276169</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.01173851452767849</v>
+        <v>0.194654107093811</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1916937977075577</v>
+        <v>0.5647721886634827</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.07749887555837631</v>
+        <v>2.068906784057617</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.1436218023300171</v>
+        <v>0.1704080104827881</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.009576606564223766</v>
+        <v>1.053962826728821</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.001538141630589962</v>
+        <v>0.1233387440443039</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.05465291813015938</v>
+        <v>0.2260532975196838</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.1141880378127098</v>
+        <v>0.2895184457302094</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.02446980960667133</v>
+        <v>0.28488889336586</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.02972636744379997</v>
+        <v>0.4433553218841553</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.05164385586977005</v>
+        <v>0.08286375552415848</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.03175408765673637</v>
+        <v>0.5218585729598999</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.04070224612951279</v>
+        <v>0.6224251985549927</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.06129191443324089</v>
+        <v>1.055482387542725</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.1140871196985245</v>
+        <v>0.8099605441093445</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.005859339144080877</v>
+        <v>0.1028022840619087</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.07057970017194748</v>
+        <v>0.06258320808410645</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.1608309000730515</v>
+        <v>0.5704317092895508</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.007101563736796379</v>
+        <v>0.09796179831027985</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.04779290407896042</v>
+        <v>0.1475883424282074</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.01645181886851788</v>
+        <v>0.1943859308958054</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.05507422238588333</v>
+        <v>0.01421205699443817</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.01895598322153091</v>
+        <v>0.06115903332829475</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0443606786429882</v>
+        <v>0.07050254195928574</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.04745090380311012</v>
+        <v>0.2068472653627396</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.007871117442846298</v>
+        <v>0.0177542045712471</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.05004774034023285</v>
+        <v>0.0018719881772995</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0004397875163704157</v>
+        <v>0.3283673524856567</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1472110152244568</v>
+        <v>0.6257016062736511</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.04826962947845459</v>
+        <v>1.030783176422119</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.06618426740169525</v>
+        <v>0.1180292814970016</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.02213095501065254</v>
+        <v>0.6096962094306946</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.05481190606951714</v>
+        <v>0.1500875651836395</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.06604359298944473</v>
+        <v>0.07187794148921967</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.03011213801801205</v>
+        <v>0.191119909286499</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.02320303022861481</v>
+        <v>0.08538775891065598</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.005997892469167709</v>
+        <v>0.6915097832679749</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.08690934628248215</v>
+        <v>0.129053145647049</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.06100186705589294</v>
+        <v>0.4078404903411865</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.03317857161164284</v>
+        <v>0.2666740119457245</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.02049390971660614</v>
+        <v>0.5106673836708069</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.02590183168649673</v>
+        <v>0.05158444494009018</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.01071553118526936</v>
+        <v>0.1949154436588287</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.008904417976737022</v>
+        <v>0.1749939471483231</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.00169686321169138</v>
+        <v>0.0710182785987854</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.008909300900995731</v>
+        <v>0.2417715936899185</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.02710999548435211</v>
+        <v>0.4629846215248108</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.04595937952399254</v>
+        <v>0.2352189272642136</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.01719769649207592</v>
+        <v>0.1364315003156662</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.0727146714925766</v>
+        <v>0.11593858897686</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.03856405988335609</v>
+        <v>0.2708298861980438</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.03687263280153275</v>
+        <v>0.3145043849945068</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.08370007574558258</v>
+        <v>0.505740761756897</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.08427485078573227</v>
+        <v>0.5485743284225464</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.02242285758256912</v>
+        <v>0.2797796130180359</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.08188121020793915</v>
+        <v>0.08886294811964035</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.05017740279436111</v>
+        <v>0.3744194507598877</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.03285202011466026</v>
+        <v>0.3394621312618256</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.004135108552873135</v>
+        <v>0.5846533179283142</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.04931626841425896</v>
+        <v>0.06665963679552078</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.01418385654687881</v>
+        <v>0.2520275413990021</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.01375327631831169</v>
+        <v>0.1825084090232849</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.00836440734565258</v>
+        <v>0.1628188043832779</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.01632385700941086</v>
+        <v>0.04779697954654694</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.007019555196166039</v>
+        <v>0.03335963189601898</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.1651719659566879</v>
+        <v>0.5003634095191956</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0714099258184433</v>
+        <v>0.03369112312793732</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.04890221729874611</v>
+        <v>1.12711763381958</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.01994341611862183</v>
+        <v>0.01513113081455231</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0146363154053688</v>
+        <v>0.2946439981460571</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.03240509331226349</v>
+        <v>0.2119122296571732</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.07274643331766129</v>
+        <v>0.2345514893531799</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.02301037311553955</v>
+        <v>0.01368457078933716</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.03490776568651199</v>
+        <v>0.2906821370124817</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.06061336398124695</v>
+        <v>0.1468620449304581</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.03281565010547638</v>
+        <v>0.2330073863267899</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.008395688608288765</v>
+        <v>0.2716023921966553</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.01961691677570343</v>
+        <v>0.1752637624740601</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.04029443114995956</v>
+        <v>0.5450092554092407</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.009953780099749565</v>
+        <v>0.253435879945755</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.03878456726670265</v>
+        <v>0.3601758480072021</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.01872751303017139</v>
+        <v>0.4861542582511902</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.02807614952325821</v>
+        <v>0.02971622347831726</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.003573889378458261</v>
+        <v>0.002241905778646469</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.01636042073369026</v>
+        <v>0.2718088924884796</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.01301032304763794</v>
+        <v>0.5276407599449158</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.03050560131669044</v>
+        <v>0.2006934136152267</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.02876655384898186</v>
+        <v>0.08115631341934204</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.006070254370570183</v>
+        <v>0.2826363444328308</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.06387411803007126</v>
+        <v>0.1389901340007782</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.03306469693779945</v>
+        <v>0.07103411108255386</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.1111014187335968</v>
+        <v>0.2133667469024658</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.02761744149029255</v>
+        <v>0.4280561804771423</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.04334937036037445</v>
+        <v>0.3936914801597595</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.02333259582519531</v>
+        <v>0.1524674296379089</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.03982286527752876</v>
+        <v>0.1785210072994232</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.07069069147109985</v>
+        <v>0.393167108297348</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.01227015815675259</v>
+        <v>0.01352978311479092</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.0122755691409111</v>
+        <v>0.05760744959115982</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.0175910796970129</v>
+        <v>0.1026621833443642</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.01155081763863564</v>
+        <v>0.1638308465480804</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.06103429198265076</v>
+        <v>0.01678166911005974</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.03216906264424324</v>
+        <v>0.3801107108592987</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.01506790332496166</v>
+        <v>0.1865968555212021</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0508304163813591</v>
+        <v>0.1453256905078888</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.0361863300204277</v>
+        <v>0.9214286208152771</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.07817442715167999</v>
+        <v>0.375362902879715</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.01078746560961008</v>
+        <v>0.4177501797676086</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.01083148829638958</v>
+        <v>0.1023534834384918</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.0879892036318779</v>
+        <v>0.07543055713176727</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.03682469576597214</v>
+        <v>0.3958570957183838</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.03434387594461441</v>
+        <v>0.2593251466751099</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.006621917709708214</v>
+        <v>0.5832188129425049</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.03763997927308083</v>
+        <v>0.04580648243427277</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.003136275103315711</v>
+        <v>0.2115941941738129</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.01856893301010132</v>
+        <v>0.2305251508951187</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.01124083437025547</v>
+        <v>0.1036828309297562</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.01722968742251396</v>
+        <v>0.1736175864934921</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.05676016211509705</v>
+        <v>0.0984974205493927</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.03055324405431747</v>
+        <v>0.6797709465026855</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.02642119489610195</v>
+        <v>0.03197872266173363</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.05011092498898506</v>
+        <v>0.2966077923774719</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.005502136424183846</v>
+        <v>0.05268620699644089</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.05634951218962669</v>
+        <v>0.08385327458381653</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.02727640978991985</v>
+        <v>0.1363181620836258</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.003381236456334591</v>
+        <v>0.2106659412384033</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.04400204122066498</v>
+        <v>0.1263168156147003</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.03963079303503036</v>
+        <v>0.01584357395768166</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.1223867386579514</v>
+        <v>0.693569004535675</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.006951658055186272</v>
+        <v>1.1628737449646</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.1438171118497849</v>
+        <v>0.3219279944896698</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.008928697556257248</v>
+        <v>0.1574132591485977</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.01055366918444633</v>
+        <v>0.4562654495239258</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.004130260553210974</v>
+        <v>0.3278487920761108</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.01920216344296932</v>
+        <v>0.5405126810073853</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.001151979900896549</v>
+        <v>0.07290014624595642</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.01014812476933002</v>
+        <v>0.2662979364395142</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.02530250512063503</v>
+        <v>0.2140694856643677</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.02448610030114651</v>
+        <v>0.1738170683383942</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.03164820373058319</v>
+        <v>0.05864038318395615</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.1191750094294548</v>
+        <v>0.7117180228233337</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.04165387898683548</v>
+        <v>0.1880447119474411</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.02350227534770966</v>
+        <v>1.606816172599792</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.0307833906263113</v>
+        <v>0.4917978048324585</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.04568734392523766</v>
+        <v>0.4331567287445068</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.002296775812283158</v>
+        <v>0.08017878234386444</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0008050997857935727</v>
+        <v>0.449127733707428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001914937747642398</v>
+        <v>0.01793969236314297</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0005931974155828357</v>
+        <v>0.4200383126735687</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000150254913023673</v>
+        <v>0.103262223303318</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003321957774460316</v>
+        <v>0.01012858282774687</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000390578294172883</v>
+        <v>0.008633587509393692</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001096411288017407</v>
+        <v>0.03609186410903931</v>
       </c>
       <c r="I8" t="n">
-        <v>3.226171247661114e-05</v>
+        <v>0.009112155064940453</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002140805125236511</v>
+        <v>0.06676765531301498</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000236684296396561</v>
+        <v>0.3800450265407562</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004688460030592978</v>
+        <v>0.02450728416442871</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0002129980275640264</v>
+        <v>0.2619701325893402</v>
       </c>
       <c r="N8" t="n">
-        <v>0.000500824477057904</v>
+        <v>0.1195585429668427</v>
       </c>
       <c r="O8" t="n">
-        <v>6.611948629142717e-05</v>
+        <v>0.02711650356650352</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0005767533439211547</v>
+        <v>0.06174907833337784</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.40587924560532e-05</v>
+        <v>0.05346590280532837</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0002402579120825976</v>
+        <v>0.01303541474044323</v>
       </c>
       <c r="S8" t="n">
-        <v>8.936182712204754e-05</v>
+        <v>0.03017128631472588</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0002548281627241522</v>
+        <v>0.08241889625787735</v>
       </c>
       <c r="U8" t="n">
-        <v>8.59595529618673e-05</v>
+        <v>0.01476344652473927</v>
       </c>
       <c r="V8" t="n">
-        <v>6.359063263516873e-05</v>
+        <v>0.0206085778772831</v>
       </c>
       <c r="W8" t="n">
-        <v>8.310977136716247e-05</v>
+        <v>0.01095505896955729</v>
       </c>
       <c r="X8" t="n">
-        <v>1.704092392174061e-05</v>
+        <v>0.02258767560124397</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0001428480900358409</v>
+        <v>0.09403799474239349</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.782318814657629e-05</v>
+        <v>0.03492719680070877</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0001248375920113176</v>
+        <v>0.02657734602689743</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.467672498431057e-06</v>
+        <v>0.05699163675308228</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0001132518227677792</v>
+        <v>0.09309337288141251</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0003914848493877798</v>
+        <v>0.005273604765534401</v>
       </c>
       <c r="AE8" t="n">
-        <v>2.433152985759079e-05</v>
+        <v>0.01254130806773901</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.536916796700098e-05</v>
+        <v>0.005645900499075651</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0001106848212657496</v>
+        <v>0.0568428635597229</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0003392326470930129</v>
+        <v>0.0103185772895813</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0001287546911044046</v>
+        <v>0.03194694221019745</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7.924350938992575e-05</v>
+        <v>0.001275912392884493</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0003289658343419433</v>
+        <v>0.01714784279465675</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0002343367377761751</v>
+        <v>0.05143424868583679</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0001591250183992088</v>
+        <v>0.007494598627090454</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0001982915564440191</v>
+        <v>0.03160993382334709</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0001624117139726877</v>
+        <v>0.02897973172366619</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0001882542710518464</v>
+        <v>0.07185452431440353</v>
       </c>
       <c r="AQ8" t="n">
-        <v>3.83852056984324e-05</v>
+        <v>0.03557832539081573</v>
       </c>
       <c r="AR8" t="n">
-        <v>8.75329933478497e-05</v>
+        <v>0.004056640900671482</v>
       </c>
       <c r="AS8" t="n">
-        <v>4.924254244542681e-05</v>
+        <v>0.02251669019460678</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.001144186826422811</v>
+        <v>0.1224672496318817</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.296278247144073e-05</v>
+        <v>0.3302565813064575</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0002805491676554084</v>
+        <v>0.009169834665954113</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0002170900843339041</v>
+        <v>0.180634394288063</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0003578832547646016</v>
+        <v>0.05165934935212135</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.000286387192318216</v>
+        <v>0.01863632723689079</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0004046888207085431</v>
+        <v>0.08294641971588135</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0004088567511644214</v>
+        <v>0.03975867852568626</v>
       </c>
       <c r="BB8" t="n">
-        <v>9.561712795402855e-05</v>
+        <v>7.940689101815224e-05</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0004208463942632079</v>
+        <v>0.004711393266916275</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0004111240850761533</v>
+        <v>0.08901551365852356</v>
       </c>
       <c r="BE8" t="n">
-        <v>8.160596189554781e-05</v>
+        <v>0.007198506034910679</v>
       </c>
       <c r="BF8" t="n">
-        <v>2.835888517438434e-05</v>
+        <v>0.0335165336728096</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0001533666800241917</v>
+        <v>0.08118952810764313</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0001982380199478939</v>
+        <v>0.02597260475158691</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0003633694723248482</v>
+        <v>0.08291299641132355</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.0008731273119337857</v>
+        <v>0.07231409847736359</v>
       </c>
       <c r="BK8" t="n">
-        <v>7.913222361821681e-07</v>
+        <v>0.01724916324019432</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0003981694462709129</v>
+        <v>0.04139447212219238</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.0001965506235137582</v>
+        <v>0.08504367619752884</v>
       </c>
       <c r="BN8" t="n">
-        <v>3.587539322325028e-05</v>
+        <v>0.02137234807014465</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0001305697951465845</v>
+        <v>0.003826630301773548</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0001278831477975473</v>
+        <v>0.08107922971248627</v>
       </c>
       <c r="BQ8" t="n">
-        <v>7.095090404618531e-05</v>
+        <v>0.05423855036497116</v>
       </c>
       <c r="BR8" t="n">
-        <v>1.052589686878491e-05</v>
+        <v>0.05624603480100632</v>
       </c>
       <c r="BS8" t="n">
-        <v>6.845284951850772e-05</v>
+        <v>0.01495656091719866</v>
       </c>
       <c r="BT8" t="n">
-        <v>8.261558832600713e-06</v>
+        <v>0.02392534911632538</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.000871057971380651</v>
+        <v>0.07208634912967682</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.0001064922980731353</v>
+        <v>0.1585314720869064</v>
       </c>
       <c r="BW8" t="n">
-        <v>8.796616748441011e-05</v>
+        <v>0.05316329374909401</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0006743366830050945</v>
+        <v>0.03046465665102005</v>
       </c>
       <c r="BY8" t="n">
-        <v>6.569665856659412e-06</v>
+        <v>0.009793216362595558</v>
       </c>
       <c r="BZ8" t="n">
-        <v>6.319942622212693e-05</v>
+        <v>0.004388210829347372</v>
       </c>
       <c r="CA8" t="n">
-        <v>2.925734952441417e-05</v>
+        <v>0.00463831564411521</v>
       </c>
       <c r="CB8" t="n">
-        <v>6.953687989152968e-05</v>
+        <v>0.03045135922729969</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.0001150008538388647</v>
+        <v>0.02039769850671291</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0004752218374051154</v>
+        <v>0.002198851900175214</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.0002101498394040391</v>
+        <v>0.0690143033862114</v>
       </c>
       <c r="CF8" t="n">
-        <v>4.787667421624064e-06</v>
+        <v>0.006504771299660206</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.000151997635839507</v>
+        <v>0.04525585100054741</v>
       </c>
       <c r="CH8" t="n">
-        <v>3.730408934643492e-05</v>
+        <v>0.005235655233263969</v>
       </c>
       <c r="CI8" t="n">
-        <v>3.725473652593791e-05</v>
+        <v>0.00353184062987566</v>
       </c>
       <c r="CJ8" t="n">
-        <v>2.184056938858703e-06</v>
+        <v>0.013141886331141</v>
       </c>
       <c r="CK8" t="n">
-        <v>5.472750854096375e-05</v>
+        <v>0.01708798855543137</v>
       </c>
       <c r="CL8" t="n">
-        <v>2.482214767951518e-05</v>
+        <v>0.007170795928686857</v>
       </c>
       <c r="CM8" t="n">
-        <v>9.495675476500764e-05</v>
+        <v>0.08891280740499496</v>
       </c>
       <c r="CN8" t="n">
-        <v>6.930484960321337e-05</v>
+        <v>0.04311653971672058</v>
       </c>
       <c r="CO8" t="n">
-        <v>5.53189602214843e-05</v>
+        <v>0.002273701131343842</v>
       </c>
       <c r="CP8" t="n">
-        <v>2.199540904257447e-05</v>
+        <v>0.1427710354328156</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0005279965116642416</v>
+        <v>0.1501152068376541</v>
       </c>
       <c r="CR8" t="n">
-        <v>6.641466461587697e-05</v>
+        <v>0.03613604977726936</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0004070182039868087</v>
+        <v>0.03240899741649628</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.0005853953771293163</v>
+        <v>0.137628898024559</v>
       </c>
       <c r="CU8" t="n">
-        <v>1.293722743866965e-05</v>
+        <v>0.00664188526570797</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0004667051834985614</v>
+        <v>0.002105657011270523</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.0002036624791799113</v>
+        <v>0.06899809092283249</v>
       </c>
       <c r="CX8" t="n">
-        <v>7.553397153969854e-05</v>
+        <v>0.01898637600243092</v>
       </c>
       <c r="CY8" t="n">
-        <v>3.331507468828931e-05</v>
+        <v>0.07423227280378342</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.000144397301482968</v>
+        <v>0.01416600961238146</v>
       </c>
       <c r="DA8" t="n">
-        <v>4.310980875743553e-05</v>
+        <v>0.01734483428299427</v>
       </c>
       <c r="DB8" t="n">
-        <v>5.848476212122478e-05</v>
+        <v>0.006326998583972454</v>
       </c>
       <c r="DC8" t="n">
-        <v>3.324081990285777e-05</v>
+        <v>0.009008192457258701</v>
       </c>
       <c r="DD8" t="n">
-        <v>5.257903467281722e-05</v>
+        <v>0.00424785865470767</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.0003436930710449815</v>
+        <v>0.02640062943100929</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.0007561451056972146</v>
+        <v>0.07403260469436646</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.0003001102595590055</v>
+        <v>7.895240560173988e-05</v>
       </c>
       <c r="DH8" t="n">
-        <v>9.322704136138782e-05</v>
+        <v>0.1926335990428925</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.0005351807922124863</v>
+        <v>0.01563367620110512</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.0004681192804127932</v>
+        <v>0.03453922271728516</v>
       </c>
       <c r="DK8" t="n">
-        <v>3.591880886233412e-05</v>
+        <v>0.01085406262427568</v>
       </c>
       <c r="DL8" t="n">
-        <v>1.835548027884215e-05</v>
+        <v>0.1018848195672035</v>
       </c>
       <c r="DM8" t="n">
-        <v>8.895873907022178e-05</v>
+        <v>0.01916597597301006</v>
       </c>
       <c r="DN8" t="n">
-        <v>4.67597164970357e-05</v>
+        <v>0.01553161814808846</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.0002937339013442397</v>
+        <v>0.06622064113616943</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0001282480079680681</v>
+        <v>0.02112104743719101</v>
       </c>
       <c r="DQ8" t="n">
-        <v>7.449608528986573e-05</v>
+        <v>0.0894518718123436</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.0001450625859433785</v>
+        <v>0.01484276261180639</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.0002114353264914826</v>
+        <v>0.04992906004190445</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.0004858826287090778</v>
+        <v>0.02216727659106255</v>
       </c>
       <c r="DU8" t="n">
-        <v>7.68709069234319e-05</v>
+        <v>0.001547375810332596</v>
       </c>
       <c r="DV8" t="n">
-        <v>3.137610474368557e-05</v>
+        <v>0.02156732976436615</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.0001830899127526209</v>
+        <v>0.007662628777325153</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0001371257967548445</v>
+        <v>0.02627759054303169</v>
       </c>
       <c r="DY8" t="n">
-        <v>1.081933260138612e-05</v>
+        <v>0.02863155119121075</v>
       </c>
       <c r="DZ8" t="n">
-        <v>1.488139514549403e-05</v>
+        <v>0.003701827023178339</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0004103670944459736</v>
+        <v>0.04365235939621925</v>
       </c>
       <c r="EB8" t="n">
-        <v>3.637638292275369e-05</v>
+        <v>0.024669224396348</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.0001137546933023259</v>
+        <v>0.04310004413127899</v>
       </c>
       <c r="ED8" t="n">
-        <v>8.2430437032599e-05</v>
+        <v>0.008455503731966019</v>
       </c>
       <c r="EE8" t="n">
-        <v>6.514044071082026e-05</v>
+        <v>0.001605764962732792</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.0006092723342590034</v>
+        <v>0.009255639277398586</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.000361239566700533</v>
+        <v>0.056321170181036</v>
       </c>
       <c r="EH8" t="n">
-        <v>4.552514656097628e-05</v>
+        <v>0.01368850655853748</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.0002253098937217146</v>
+        <v>0.1420111209154129</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.0001169532333733514</v>
+        <v>0.09909579902887344</v>
       </c>
       <c r="EK8" t="n">
-        <v>4.655675002140924e-05</v>
+        <v>0.0172717310488224</v>
       </c>
       <c r="EL8" t="n">
-        <v>7.777952123433352e-05</v>
+        <v>0.02396903373301029</v>
       </c>
       <c r="EM8" t="n">
-        <v>2.239338573417626e-05</v>
+        <v>0.0003701304085552692</v>
       </c>
       <c r="EN8" t="n">
-        <v>4.724835525848903e-05</v>
+        <v>0.008778887800872326</v>
       </c>
       <c r="EO8" t="n">
-        <v>4.176453512627631e-05</v>
+        <v>0.06253604590892792</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.0004359742742963135</v>
+        <v>0.03589174896478653</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.0001439502229914069</v>
+        <v>0.01665918342769146</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.0004112688184250146</v>
+        <v>0.04605628922581673</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.0003495832497719675</v>
+        <v>0.05270304158329964</v>
       </c>
       <c r="ET8" t="n">
-        <v>8.025334682315588e-05</v>
+        <v>0.02520174719393253</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0001028192564263009</v>
+        <v>0.006935724057257175</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.0001306383492192253</v>
+        <v>0.01164771988987923</v>
       </c>
       <c r="EW8" t="n">
-        <v>5.749898264184594e-05</v>
+        <v>0.01690514385700226</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.0004778228467330337</v>
+        <v>0.02284295111894608</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.0001412302372045815</v>
+        <v>0.06229598447680473</v>
       </c>
       <c r="EZ8" t="n">
-        <v>8.396765770157799e-05</v>
+        <v>0.009076489135622978</v>
       </c>
       <c r="FA8" t="n">
-        <v>5.142009831615724e-05</v>
+        <v>0.05837744846940041</v>
       </c>
       <c r="FB8" t="n">
-        <v>3.156275852234103e-05</v>
+        <v>0.0135305542498827</v>
       </c>
       <c r="FC8" t="n">
-        <v>5.722158311982639e-05</v>
+        <v>0.02377122081816196</v>
       </c>
       <c r="FD8" t="n">
-        <v>2.23692441068124e-05</v>
+        <v>0.007606608793139458</v>
       </c>
       <c r="FE8" t="n">
-        <v>5.233624688116834e-05</v>
+        <v>0.01197093073278666</v>
       </c>
       <c r="FF8" t="n">
-        <v>9.230312571162358e-06</v>
+        <v>0.008856848813593388</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.0004510425205808133</v>
+        <v>0.007584372069686651</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.000415130314650014</v>
+        <v>0.0287668239325285</v>
       </c>
       <c r="FI8" t="n">
-        <v>6.986581138335168e-05</v>
+        <v>0.03629841655492783</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.0003363518626429141</v>
+        <v>0.08927307277917862</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.0002999167772941291</v>
+        <v>0.0438494049012661</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.0001424726942786947</v>
+        <v>0.01243157126009464</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0002605533227324486</v>
+        <v>0.08107148110866547</v>
       </c>
       <c r="FN8" t="n">
-        <v>4.069115675520152e-06</v>
+        <v>0.00250167865306139</v>
       </c>
       <c r="FO8" t="n">
-        <v>2.530567144276574e-06</v>
+        <v>0.01680765300989151</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0002375813783146441</v>
+        <v>0.09151423722505569</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.0003037312708329409</v>
+        <v>0.04051901400089264</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.0001765154011081904</v>
+        <v>0.008009713143110275</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.0003817546530626714</v>
+        <v>0.07684309035539627</v>
       </c>
       <c r="FT8" t="n">
-        <v>3.836990435956977e-05</v>
+        <v>0.1191385611891747</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.0001383781927870587</v>
+        <v>0.02532380074262619</v>
       </c>
       <c r="FV8" t="n">
-        <v>9.34410491026938e-05</v>
+        <v>0.01698929443955421</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.0002013877092394978</v>
+        <v>0.02390310540795326</v>
       </c>
       <c r="FX8" t="n">
-        <v>9.835429955273867e-05</v>
+        <v>0.02430029027163982</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0001158996383310296</v>
+        <v>0.1095998361706734</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.0001856715680332854</v>
+        <v>0.02681804448366165</v>
       </c>
       <c r="GA8" t="n">
-        <v>8.986880129668862e-05</v>
+        <v>0.006863150745630264</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0002233875420643017</v>
+        <v>0.0001866975799202919</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.0001331577077507973</v>
+        <v>0.0457116886973381</v>
       </c>
       <c r="GD8" t="n">
-        <v>4.237848042976111e-05</v>
+        <v>0.07031445205211639</v>
       </c>
       <c r="GE8" t="n">
-        <v>2.829806908266619e-05</v>
+        <v>0.07637530565261841</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.000214075218536891</v>
+        <v>0.009797943755984306</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.0001315901172347367</v>
+        <v>0.02490544132888317</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0001728834031382576</v>
+        <v>0.3113335072994232</v>
       </c>
       <c r="B9" t="n">
-        <v>0.001054776832461357</v>
+        <v>0.1023179739713669</v>
       </c>
       <c r="C9" t="n">
-        <v>9.917419811245054e-05</v>
+        <v>0.3949578702449799</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002599157160148025</v>
+        <v>0.1301283836364746</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0005116222891956568</v>
+        <v>0.2241294980049133</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002021632099058479</v>
+        <v>0.02220671251416206</v>
       </c>
       <c r="G9" t="n">
-        <v>6.145419320091605e-07</v>
+        <v>0.001658696681261063</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001013622459140606</v>
+        <v>0.1068326830863953</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002020041283685714</v>
+        <v>0.05927734076976776</v>
       </c>
       <c r="J9" t="n">
-        <v>4.075889592058957e-05</v>
+        <v>0.1667966693639755</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0009850745555013418</v>
+        <v>0.06314938515424728</v>
       </c>
       <c r="L9" t="n">
-        <v>1.182908363261959e-05</v>
+        <v>0.2808319628238678</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0001903219090308994</v>
+        <v>0.2159008383750916</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0004205666773486882</v>
+        <v>0.1770388931035995</v>
       </c>
       <c r="O9" t="n">
-        <v>4.213282227283344e-05</v>
+        <v>0.1440646052360535</v>
       </c>
       <c r="P9" t="n">
-        <v>4.256709144101478e-05</v>
+        <v>0.04909507557749748</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0001408941898262128</v>
+        <v>0.03007538057863712</v>
       </c>
       <c r="R9" t="n">
-        <v>7.523751264670864e-05</v>
+        <v>0.1396859586238861</v>
       </c>
       <c r="S9" t="n">
-        <v>1.588125815032981e-05</v>
+        <v>0.007564477622509003</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0001248995395144448</v>
+        <v>0.0764077752828598</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0001582631666678935</v>
+        <v>0.1327645629644394</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0001203700521728024</v>
+        <v>0.06248504668474197</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0001196260636788793</v>
+        <v>0.09976606070995331</v>
       </c>
       <c r="X9" t="n">
-        <v>4.545847696135752e-05</v>
+        <v>0.08108151704072952</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.031357068219222e-05</v>
+        <v>0.03145784884691238</v>
       </c>
       <c r="Z9" t="n">
-        <v>3.231705704820342e-06</v>
+        <v>0.02536420710384846</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.281085320049897e-05</v>
+        <v>0.02233081124722958</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.922395550645888e-05</v>
+        <v>0.03921384364366531</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0002683343773242086</v>
+        <v>0.0270631555467844</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.001265086932108e-06</v>
+        <v>0.1398031115531921</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.946043423435185e-05</v>
+        <v>0.04802834987640381</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.476336809806526e-05</v>
+        <v>0.03834264725446701</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.051612581359223e-05</v>
+        <v>0.05705685913562775</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.414129893528298e-05</v>
+        <v>0.02520025707781315</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.000106190680526197</v>
+        <v>0.02701390162110329</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.504026093054563e-05</v>
+        <v>0.04147472232580185</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.0001349705999018624</v>
+        <v>0.07844165712594986</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0003757828962989151</v>
+        <v>0.1820544898509979</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.000172042811755091</v>
+        <v>0.07806181907653809</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.077688259305432e-05</v>
+        <v>0.03403271734714508</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0001298287388635799</v>
+        <v>0.04258165135979652</v>
       </c>
       <c r="AP9" t="n">
-        <v>5.109354970045388e-05</v>
+        <v>0.08030508458614349</v>
       </c>
       <c r="AQ9" t="n">
-        <v>7.33929337002337e-05</v>
+        <v>0.06889322400093079</v>
       </c>
       <c r="AR9" t="n">
-        <v>2.794915417325683e-05</v>
+        <v>0.06192513182759285</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.585071994573809e-05</v>
+        <v>0.0645131915807724</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0002286933013238013</v>
+        <v>0.2013227045536041</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0007128805737011135</v>
+        <v>0.156440868973732</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0001147943039541133</v>
+        <v>0.2818787395954132</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.470051398035139e-06</v>
+        <v>0.0819348469376564</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.50666237459518e-05</v>
+        <v>0.481297105550766</v>
       </c>
       <c r="AY9" t="n">
-        <v>4.225382144795731e-05</v>
+        <v>0.05147366598248482</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.0001907320984173566</v>
+        <v>0.1441210210323334</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0004609762399923056</v>
+        <v>0.2178949266672134</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0002818499051500112</v>
+        <v>0.08989658951759338</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.0001832828420447186</v>
+        <v>0.06999477744102478</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.0002107277978211641</v>
+        <v>0.3087993860244751</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.137569324782817e-05</v>
+        <v>0.03687188401818275</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0001316547422902659</v>
+        <v>0.2713238596916199</v>
       </c>
       <c r="BG9" t="n">
-        <v>9.398501424584538e-05</v>
+        <v>0.01383083313703537</v>
       </c>
       <c r="BH9" t="n">
-        <v>5.862615944352001e-05</v>
+        <v>0.2293390929698944</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.0001221392158186063</v>
+        <v>0.03955624252557755</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0002745605306699872</v>
+        <v>0.312242329120636</v>
       </c>
       <c r="BK9" t="n">
-        <v>9.868814959190786e-05</v>
+        <v>0.0002412013709545135</v>
       </c>
       <c r="BL9" t="n">
-        <v>6.038484571035951e-05</v>
+        <v>0.1077395752072334</v>
       </c>
       <c r="BM9" t="n">
-        <v>4.206055746180937e-05</v>
+        <v>0.06550782173871994</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.0001293232926400378</v>
+        <v>0.1290172338485718</v>
       </c>
       <c r="BO9" t="n">
-        <v>5.247559238341637e-05</v>
+        <v>0.2523695826530457</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.0002619230072014034</v>
+        <v>0.01892816834151745</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.0003030247462447733</v>
+        <v>0.1588680893182755</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.0001417977618984878</v>
+        <v>0.1351903527975082</v>
       </c>
       <c r="BS9" t="n">
-        <v>4.986377462046221e-07</v>
+        <v>0.03800009936094284</v>
       </c>
       <c r="BT9" t="n">
-        <v>9.360742842545733e-05</v>
+        <v>0.1912669539451599</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.000202289957087487</v>
+        <v>0.05391143262386322</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.0003657487977761775</v>
+        <v>0.05198724940419197</v>
       </c>
       <c r="BW9" t="n">
-        <v>6.067275535315275e-05</v>
+        <v>0.0889950692653656</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0001367114309687167</v>
+        <v>0.09141169488430023</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0001282615994568914</v>
+        <v>0.269407331943512</v>
       </c>
       <c r="BZ9" t="n">
-        <v>6.037719867890701e-05</v>
+        <v>0.1287019550800323</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.0001576257927808911</v>
+        <v>0.08548513054847717</v>
       </c>
       <c r="CB9" t="n">
-        <v>2.489145117579028e-05</v>
+        <v>0.1399814039468765</v>
       </c>
       <c r="CC9" t="n">
-        <v>5.487713133334182e-05</v>
+        <v>0.1712377667427063</v>
       </c>
       <c r="CD9" t="n">
-        <v>2.59897205978632e-08</v>
+        <v>0.05050325021147728</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.0002434392663417384</v>
+        <v>0.01737559214234352</v>
       </c>
       <c r="CF9" t="n">
-        <v>7.770239608362317e-05</v>
+        <v>0.06400913000106812</v>
       </c>
       <c r="CG9" t="n">
-        <v>5.006600986234844e-06</v>
+        <v>0.07195139676332474</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0001133886253228411</v>
+        <v>0.03078392706811428</v>
       </c>
       <c r="CI9" t="n">
-        <v>9.460681030759588e-05</v>
+        <v>0.009695230051875114</v>
       </c>
       <c r="CJ9" t="n">
-        <v>5.258468445390463e-05</v>
+        <v>0.005148069467395544</v>
       </c>
       <c r="CK9" t="n">
-        <v>3.529036257532425e-05</v>
+        <v>0.01341861486434937</v>
       </c>
       <c r="CL9" t="n">
-        <v>2.241031506855506e-05</v>
+        <v>0.01164658740162849</v>
       </c>
       <c r="CM9" t="n">
-        <v>2.310145282535814e-05</v>
+        <v>0.05938837677240372</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.0001965757692232728</v>
+        <v>0.002306688576936722</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.0001181659026769921</v>
+        <v>0.02301051840186119</v>
       </c>
       <c r="CP9" t="n">
-        <v>7.822838961146772e-05</v>
+        <v>0.1339455991983414</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.0003226647968403995</v>
+        <v>0.2851088345050812</v>
       </c>
       <c r="CR9" t="n">
-        <v>4.905897003482096e-05</v>
+        <v>0.07207021117210388</v>
       </c>
       <c r="CS9" t="n">
-        <v>6.159459735499695e-05</v>
+        <v>0.168090745806694</v>
       </c>
       <c r="CT9" t="n">
-        <v>6.059525185264647e-05</v>
+        <v>0.005498318001627922</v>
       </c>
       <c r="CU9" t="n">
-        <v>8.222767064580694e-05</v>
+        <v>0.104591891169548</v>
       </c>
       <c r="CV9" t="n">
-        <v>7.411752449115738e-06</v>
+        <v>0.0384458489716053</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.0002255236468045041</v>
+        <v>0.02090743370354176</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.0001312799722654745</v>
+        <v>0.07297255098819733</v>
       </c>
       <c r="CY9" t="n">
-        <v>6.350905459839851e-05</v>
+        <v>0.07759614288806915</v>
       </c>
       <c r="CZ9" t="n">
-        <v>9.941921598510817e-05</v>
+        <v>0.02208499610424042</v>
       </c>
       <c r="DA9" t="n">
-        <v>8.637610881123692e-05</v>
+        <v>0.01737350970506668</v>
       </c>
       <c r="DB9" t="n">
-        <v>4.786771023645997e-05</v>
+        <v>0.01059523783624172</v>
       </c>
       <c r="DC9" t="n">
-        <v>7.069829280226259e-06</v>
+        <v>0.01625414565205574</v>
       </c>
       <c r="DD9" t="n">
-        <v>5.7876059145201e-07</v>
+        <v>0.00924965925514698</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.0002181935269618407</v>
+        <v>0.01016071438789368</v>
       </c>
       <c r="DF9" t="n">
-        <v>8.741350757190958e-05</v>
+        <v>0.26091268658638</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.0001993276382563636</v>
+        <v>0.2669397294521332</v>
       </c>
       <c r="DH9" t="n">
-        <v>7.764399924781173e-05</v>
+        <v>0.1702378988265991</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.000470308237709105</v>
+        <v>0.01443695649504662</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.0002454308560118079</v>
+        <v>0.1425428688526154</v>
       </c>
       <c r="DK9" t="n">
-        <v>6.189207488205284e-05</v>
+        <v>0.03693064302206039</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.0001400643377564847</v>
+        <v>0.001781441271305084</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.000191099476069212</v>
+        <v>0.08204860240221024</v>
       </c>
       <c r="DN9" t="n">
-        <v>7.54102147766389e-05</v>
+        <v>0.02425285428762436</v>
       </c>
       <c r="DO9" t="n">
-        <v>5.186330599826761e-05</v>
+        <v>0.1199831813573837</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.0002104067825712264</v>
+        <v>0.02907351404428482</v>
       </c>
       <c r="DQ9" t="n">
-        <v>7.509079296141863e-06</v>
+        <v>0.002914473414421082</v>
       </c>
       <c r="DR9" t="n">
-        <v>9.116121509578079e-05</v>
+        <v>0.06615083664655685</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.000146567021147348</v>
+        <v>0.1054495722055435</v>
       </c>
       <c r="DT9" t="n">
-        <v>7.427417585859075e-06</v>
+        <v>0.04941166192293167</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.0001742268941598013</v>
+        <v>0.07336000353097916</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.0001899043272715062</v>
+        <v>0.1638117432594299</v>
       </c>
       <c r="DW9" t="n">
-        <v>9.89940162980929e-05</v>
+        <v>0.04409322515130043</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.0001437871105736122</v>
+        <v>0.09423346817493439</v>
       </c>
       <c r="DY9" t="n">
-        <v>3.913223554263823e-05</v>
+        <v>0.04117448627948761</v>
       </c>
       <c r="DZ9" t="n">
-        <v>7.892058420111425e-06</v>
+        <v>0.1602167934179306</v>
       </c>
       <c r="EA9" t="n">
-        <v>7.636802911292762e-05</v>
+        <v>0.1847963184118271</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.0001051532453857362</v>
+        <v>0.154219850897789</v>
       </c>
       <c r="EC9" t="n">
-        <v>4.117163189221174e-05</v>
+        <v>0.004866697359830141</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.0001227265602210537</v>
+        <v>0.1757074147462845</v>
       </c>
       <c r="EE9" t="n">
-        <v>5.356943802325986e-05</v>
+        <v>0.02849391847848892</v>
       </c>
       <c r="EF9" t="n">
-        <v>1.996091668843292e-05</v>
+        <v>0.02347258105874062</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.000293035467620939</v>
+        <v>0.1115012764930725</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.0002212078106822446</v>
+        <v>0.1600594222545624</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.0001767917710822076</v>
+        <v>0.08684859424829483</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.0002939023543149233</v>
+        <v>0.07236984372138977</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.0001303159951930866</v>
+        <v>0.04000517725944519</v>
       </c>
       <c r="EL9" t="n">
-        <v>6.033464524080046e-05</v>
+        <v>0.0253637358546257</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.0001261159195564687</v>
+        <v>0.04995033144950867</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.0002059546386590227</v>
+        <v>0.08880393952131271</v>
       </c>
       <c r="EO9" t="n">
-        <v>5.427650467026979e-05</v>
+        <v>0.04212202131748199</v>
       </c>
       <c r="EP9" t="n">
-        <v>5.540022539207712e-05</v>
+        <v>0.09228252619504929</v>
       </c>
       <c r="EQ9" t="n">
-        <v>6.347666203510016e-05</v>
+        <v>0.01499481033533812</v>
       </c>
       <c r="ER9" t="n">
-        <v>8.017265645321459e-05</v>
+        <v>0.05259016156196594</v>
       </c>
       <c r="ES9" t="n">
-        <v>8.269687532447278e-05</v>
+        <v>0.1110154241323471</v>
       </c>
       <c r="ET9" t="n">
-        <v>5.733993020839989e-05</v>
+        <v>0.07268624007701874</v>
       </c>
       <c r="EU9" t="n">
-        <v>6.80719458614476e-05</v>
+        <v>0.1425292491912842</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.0002683026832528412</v>
+        <v>0.07792740315198898</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.0001382243353873491</v>
+        <v>0.161596342921257</v>
       </c>
       <c r="EX9" t="n">
-        <v>2.59509397437796e-05</v>
+        <v>0.0157475434243679</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.0002150421205442399</v>
+        <v>0.003007611259818077</v>
       </c>
       <c r="EZ9" t="n">
-        <v>9.379895345773548e-05</v>
+        <v>0.06171311438083649</v>
       </c>
       <c r="FA9" t="n">
-        <v>4.519333742791787e-05</v>
+        <v>0.04230481386184692</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.0001183270505862311</v>
+        <v>0.02282630652189255</v>
       </c>
       <c r="FC9" t="n">
-        <v>9.862153819995001e-05</v>
+        <v>0.04589616507291794</v>
       </c>
       <c r="FD9" t="n">
-        <v>6.503358599729836e-05</v>
+        <v>0.01536216121166945</v>
       </c>
       <c r="FE9" t="n">
-        <v>4.219625407131389e-05</v>
+        <v>0.01250821631401777</v>
       </c>
       <c r="FF9" t="n">
-        <v>3.191868745489046e-05</v>
+        <v>0.02345491200685501</v>
       </c>
       <c r="FG9" t="n">
-        <v>8.842391252983361e-06</v>
+        <v>0.1519598811864853</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.000165312914759852</v>
+        <v>0.1463440805673599</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.0001279711577808484</v>
+        <v>0.03427671641111374</v>
       </c>
       <c r="FJ9" t="n">
-        <v>1.334068292635493e-05</v>
+        <v>0.03230224177241325</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.0001421441265847534</v>
+        <v>0.09513064473867416</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.0001445964880986139</v>
+        <v>0.06480347365140915</v>
       </c>
       <c r="FM9" t="n">
-        <v>1.888484985101968e-05</v>
+        <v>0.1067226007580757</v>
       </c>
       <c r="FN9" t="n">
-        <v>9.569463145453483e-05</v>
+        <v>0.04405622556805611</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.0002438248920952901</v>
+        <v>0.06131987273693085</v>
       </c>
       <c r="FP9" t="n">
-        <v>7.137855573091656e-05</v>
+        <v>0.1622417569160461</v>
       </c>
       <c r="FQ9" t="n">
-        <v>2.037860394921154e-05</v>
+        <v>0.01413344219326973</v>
       </c>
       <c r="FR9" t="n">
-        <v>6.095696880947798e-05</v>
+        <v>0.07726531475782394</v>
       </c>
       <c r="FS9" t="n">
-        <v>1.881999196484685e-05</v>
+        <v>0.004420313984155655</v>
       </c>
       <c r="FT9" t="n">
-        <v>4.467413236852735e-05</v>
+        <v>0.03452059626579285</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.0001557304203743115</v>
+        <v>0.1303622722625732</v>
       </c>
       <c r="FV9" t="n">
-        <v>1.875287125585601e-05</v>
+        <v>0.1581957936286926</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.0001031547071761452</v>
+        <v>0.1494160890579224</v>
       </c>
       <c r="FX9" t="n">
-        <v>4.075477045262232e-05</v>
+        <v>0.09283928573131561</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.0001304113538935781</v>
+        <v>0.03567013889551163</v>
       </c>
       <c r="FZ9" t="n">
-        <v>7.567574357381091e-05</v>
+        <v>0.158032700419426</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.000174599394085817</v>
+        <v>0.03388994187116623</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.0002341293729841709</v>
+        <v>0.1894887238740921</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.0002420566888758913</v>
+        <v>0.01576643064618111</v>
       </c>
       <c r="GD9" t="n">
-        <v>2.508079705876298e-05</v>
+        <v>0.1234583854675293</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.0001214167277794331</v>
+        <v>0.09426071494817734</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.0001131665558204986</v>
+        <v>0.04117321595549583</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.0001248058106284589</v>
+        <v>0.03499270603060722</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.004651645664125681</v>
+        <v>0.0005043139681220055</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09875967353582382</v>
+        <v>0.1332651525735855</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01009887084364891</v>
+        <v>0.01490675751119852</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00706541258841753</v>
+        <v>0.04002486914396286</v>
       </c>
       <c r="E10" t="n">
-        <v>0.05689537152647972</v>
+        <v>0.01038746349513531</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1006243377923965</v>
+        <v>0.1381137520074844</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01353737898170948</v>
+        <v>0.005351878702640533</v>
       </c>
       <c r="H10" t="n">
-        <v>0.00386538915336132</v>
+        <v>0.04572324082255363</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01697509922087193</v>
+        <v>0.002917067147791386</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01875106059014797</v>
+        <v>0.01903901249170303</v>
       </c>
       <c r="K10" t="n">
-        <v>0.09574941545724869</v>
+        <v>0.1095054969191551</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001974703976884484</v>
+        <v>0.02709362283349037</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01925590075552464</v>
+        <v>0.04553962498903275</v>
       </c>
       <c r="N10" t="n">
-        <v>0.06445354968309402</v>
+        <v>0.001300103031098843</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09579987823963165</v>
+        <v>0.1086322218179703</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0007044019876047969</v>
+        <v>0.0005142055451869965</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.02587966062128544</v>
+        <v>0.03482170403003693</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01892747357487679</v>
+        <v>0.02101024985313416</v>
       </c>
       <c r="S10" t="n">
-        <v>0.000448618084192276</v>
+        <v>0.004528379067778587</v>
       </c>
       <c r="T10" t="n">
-        <v>9.403127478435636e-05</v>
+        <v>0.01281041279435158</v>
       </c>
       <c r="U10" t="n">
-        <v>0.000275833997875452</v>
+        <v>0.002193874679505825</v>
       </c>
       <c r="V10" t="n">
-        <v>0.003846292616799474</v>
+        <v>0.02236221544444561</v>
       </c>
       <c r="W10" t="n">
-        <v>0.009640995413064957</v>
+        <v>0.02055542729794979</v>
       </c>
       <c r="X10" t="n">
-        <v>0.029476597905159</v>
+        <v>0.01829849556088448</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.01200744975358248</v>
+        <v>0.003177684033289552</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.02161203324794769</v>
+        <v>0.01461388915777206</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.004874395672231913</v>
+        <v>0.009320426732301712</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.01205676700919867</v>
+        <v>0.001293375971727073</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.01639017276465893</v>
+        <v>0.01606239378452301</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.01085922867059708</v>
+        <v>0.01805520989000797</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.01050384342670441</v>
+        <v>0.01591635122895241</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.03487370163202286</v>
+        <v>0.003558361437171698</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0009266063570976257</v>
+        <v>0.003519265912473202</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.003174417186528444</v>
+        <v>0.009938065893948078</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.02861034497618675</v>
+        <v>0.01056350860744715</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.002875890117138624</v>
+        <v>0.01630671694874763</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.004162263590842485</v>
+        <v>0.0126253729686141</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.02690116129815578</v>
+        <v>0.01390805840492249</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.005166190676391125</v>
+        <v>0.007062340155243874</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.002393801929429173</v>
+        <v>0.01326014194637537</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.008741000667214394</v>
+        <v>0.01243786793202162</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.01532452180981636</v>
+        <v>0.02726238593459129</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.006576811894774437</v>
+        <v>0.005485998932272196</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.005437418818473816</v>
+        <v>0.006416376680135727</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.01084213517606258</v>
+        <v>0.005882986821234226</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.005344018340110779</v>
+        <v>0.01214784011244774</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.04207126423716545</v>
+        <v>0.08543220907449722</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.005297888070344925</v>
+        <v>0.007799576967954636</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.00831989198923111</v>
+        <v>0.0201983992010355</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.01207995135337114</v>
+        <v>0.02177081629633904</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.06145847216248512</v>
+        <v>0.09666025638580322</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.002705530030652881</v>
+        <v>0.0284571535885334</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.01188981346786022</v>
+        <v>0.01044963952153921</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.001936022657901049</v>
+        <v>0.02375307492911816</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0223532821983099</v>
+        <v>0.00698043592274189</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.01612787134945393</v>
+        <v>0.0455624908208847</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0004225421580486</v>
+        <v>0.0291280560195446</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.02472300082445145</v>
+        <v>0.02106060832738876</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.01299968175590038</v>
+        <v>0.009512281976640224</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.005218408070504665</v>
+        <v>0.03189035132527351</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.006721354089677334</v>
+        <v>0.02359277382493019</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.01852252706885338</v>
+        <v>0.006979325786232948</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.006737428717315197</v>
+        <v>0.01950255781412125</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.009401299059391022</v>
+        <v>0.0006539965979754925</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.01035051327198744</v>
+        <v>0.02235814370214939</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.01064389385282993</v>
+        <v>0.00894565973430872</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.0143749276176095</v>
+        <v>0.0001863597426563501</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0259949192404747</v>
+        <v>0.01270096655935049</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.01780223846435547</v>
+        <v>0.00797694269567728</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.003050209255889058</v>
+        <v>0.003581108525395393</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.01986497640609741</v>
+        <v>0.004208918660879135</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.01005509123206139</v>
+        <v>0.02512798830866814</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.007157648913562298</v>
+        <v>0.006532236468046904</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.02855242602527142</v>
+        <v>0.04708876460790634</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.0002932965871877968</v>
+        <v>0.004378649406135082</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.003875407855957747</v>
+        <v>0.01433356106281281</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.02641076408326626</v>
+        <v>0.01346852909773588</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.03759489953517914</v>
+        <v>0.04574213549494743</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0006744347047060728</v>
+        <v>0.0005780658102594316</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.004790793638676405</v>
+        <v>0.009467285126447678</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.0161617174744606</v>
+        <v>0.0001891606952995062</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.004670075606554747</v>
+        <v>0.0003473563119769096</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.01975056156516075</v>
+        <v>0.01663209311664104</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.006391800008714199</v>
+        <v>0.006676311139017344</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.0093389842659235</v>
+        <v>0.0009893167298287153</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.01199253275990486</v>
+        <v>0.002892082557082176</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.01826149225234985</v>
+        <v>0.02493800595402718</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.004707924090325832</v>
+        <v>0.003744265995919704</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.003282073419541121</v>
+        <v>0.009563852101564407</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.006150062195956707</v>
+        <v>4.690873902291059e-05</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.00819012988358736</v>
+        <v>0.01813825964927673</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.01749611832201481</v>
+        <v>0.01352534908801317</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.002423466648906469</v>
+        <v>0.00226917490363121</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.008866478689014912</v>
+        <v>0.0007414300926029682</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.003023468889296055</v>
+        <v>0.01626798883080482</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.01925507932901382</v>
+        <v>0.01663843356072903</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.01393499784171581</v>
+        <v>0.001014386769384146</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.009416529908776283</v>
+        <v>0.01588453538715839</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.005877024959772825</v>
+        <v>0.01003102026879787</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.007422368973493576</v>
+        <v>0.004218298941850662</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.01870783418416977</v>
+        <v>0.0140416007488966</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.007542632520198822</v>
+        <v>0.005188921932131052</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.00518740015104413</v>
+        <v>0.005978207103908062</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.01232708245515823</v>
+        <v>0.003117459360510111</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.01267871353775263</v>
+        <v>0.02320673502981663</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.007608175277709961</v>
+        <v>0.0002483152784407139</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.002440205775201321</v>
+        <v>0.01207716390490532</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.005601940676569939</v>
+        <v>0.002502256538718939</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.02166765183210373</v>
+        <v>0.01563163660466671</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.01533735543489456</v>
+        <v>0.008302748203277588</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.01370270550251007</v>
+        <v>0.004584196954965591</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.01510754972696304</v>
+        <v>0.03744034469127655</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.002699462696909904</v>
+        <v>0.009670807048678398</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.001556578557938337</v>
+        <v>0.02466857805848122</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.02627603709697723</v>
+        <v>0.00371570372954011</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.00554744666442275</v>
+        <v>0.03420962393283844</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.01563733816146851</v>
+        <v>0.01843152195215225</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.003089785575866699</v>
+        <v>0.004734002519398928</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.00345687847584486</v>
+        <v>0.006202070973813534</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.01807774044573307</v>
+        <v>0.01227433420717716</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0007216462981887162</v>
+        <v>0.01041694916784763</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.01475358102470636</v>
+        <v>0.005396401975303888</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.01700115762650967</v>
+        <v>0.0162503756582737</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.01223491877317429</v>
+        <v>0.01091922447085381</v>
       </c>
       <c r="DU10" t="n">
-        <v>7.481395732611418e-05</v>
+        <v>0.006549795158207417</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.007439618464559317</v>
+        <v>0.003956317901611328</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.005179665517061949</v>
+        <v>0.004280553665012121</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0102578354999423</v>
+        <v>0.00476181274279952</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.01035037357360125</v>
+        <v>0.004321092739701271</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.0001867967657744884</v>
+        <v>0.008065545931458473</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.001806732034310699</v>
+        <v>0.01606310904026031</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.009922383353114128</v>
+        <v>0.00288231554441154</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.01160609442740679</v>
+        <v>0.005773329176008701</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.004652813542634249</v>
+        <v>0.01619045436382294</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.008455223403871059</v>
+        <v>0.01389357820153236</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.009905189275741577</v>
+        <v>0.003475145203992724</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.02634149603545666</v>
+        <v>0.01062976755201817</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.01971022970974445</v>
+        <v>0.004937898367643356</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.007560960948467255</v>
+        <v>0.0159772764891386</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.032575573772192</v>
+        <v>0.00105559453368187</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.01605668850243092</v>
+        <v>0.005378417670726776</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.002213803585618734</v>
+        <v>0.008884673938155174</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.008600221015512943</v>
+        <v>0.007757799234241247</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.01131129078567028</v>
+        <v>0.007065234240144491</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.01142813824117184</v>
+        <v>0.009492836892604828</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.004024551250040531</v>
+        <v>0.005655825138092041</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.01218150462955236</v>
+        <v>0.00172052625566721</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.00183452945202589</v>
+        <v>0.01540124882012606</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.01346259750425816</v>
+        <v>0.005113016813993454</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.01633002609014511</v>
+        <v>0.01486996933817863</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.009854668751358986</v>
+        <v>0.002755720168352127</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.005944408476352692</v>
+        <v>0.02487031370401382</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.01480384916067123</v>
+        <v>0.007563707884401083</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.01044558826833963</v>
+        <v>0.002731506712734699</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.01950717158615589</v>
+        <v>0.01400428451597691</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.004635791294276714</v>
+        <v>0.001577901188284159</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.006659967359155416</v>
+        <v>0.0009537078440189362</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.01264592818915844</v>
+        <v>0.00596697861328721</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.01491512171924114</v>
+        <v>0.02121385931968689</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.006887407507747412</v>
+        <v>0.004327725619077682</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.001875900663435459</v>
+        <v>0.006020365282893181</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.00639379071071744</v>
+        <v>0.0001263469457626343</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.01517045870423317</v>
+        <v>0.005431890487670898</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.01570228487253189</v>
+        <v>0.01260599680244923</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.02197839505970478</v>
+        <v>0.005427305586636066</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.009754589758813381</v>
+        <v>0.02523893117904663</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.01364436931908131</v>
+        <v>0.01705836318433285</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.02958205528557301</v>
+        <v>0.02766930311918259</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.007334930822253227</v>
+        <v>0.01059053000062704</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.004349538125097752</v>
+        <v>0.009353333152830601</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.01778947375714779</v>
+        <v>0.005676157772541046</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.001009325846098363</v>
+        <v>0.01463970541954041</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.01742356456816196</v>
+        <v>0.03391740098595619</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.01307516079396009</v>
+        <v>0.01235576998442411</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.03087202087044716</v>
+        <v>0.01763789355754852</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0005609765648841858</v>
+        <v>0.002654359210282564</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.03138739615678787</v>
+        <v>0.02666528150439262</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.007306165061891079</v>
+        <v>0.009788898751139641</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.001236697775311768</v>
+        <v>0.002825866919010878</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0001236572861671448</v>
+        <v>0.01596776582300663</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.01050886139273643</v>
+        <v>0.01697348989546299</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.006143755279481411</v>
+        <v>0.006424335762858391</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.00918259471654892</v>
+        <v>0.002674168907105923</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.01852431148290634</v>
+        <v>0.009273527190089226</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.02050490118563175</v>
+        <v>0.05534109473228455</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.006183858029544353</v>
+        <v>0.01459417399019003</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.007204271387308836</v>
+        <v>0.0204603411257267</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.02176951058208942</v>
+        <v>0.01277623232454062</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.00797742884606123</v>
+        <v>0.003068200312554836</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.03068926744163036</v>
+        <v>0.0003756143851205707</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03572001680731773</v>
+        <v>0.006826573982834816</v>
       </c>
       <c r="C11" t="n">
-        <v>0.008905171416699886</v>
+        <v>0.000219050794839859</v>
       </c>
       <c r="D11" t="n">
-        <v>0.008584588766098022</v>
+        <v>0.003506915178149939</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05220996588468552</v>
+        <v>0.002698406577110291</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1336089819669724</v>
+        <v>0.002715169684961438</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02295920997858047</v>
+        <v>0.000410209788242355</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04788430780172348</v>
+        <v>0.0004236467648297548</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01245575584471226</v>
+        <v>9.70515247900039e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01086832955479622</v>
+        <v>0.0002628452493809164</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03908050432801247</v>
+        <v>0.005665552336722612</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006501917261630297</v>
+        <v>0.001143093686550856</v>
       </c>
       <c r="M11" t="n">
-        <v>0.004419106058776379</v>
+        <v>0.004088514018803835</v>
       </c>
       <c r="N11" t="n">
-        <v>0.04651830717921257</v>
+        <v>0.004139592405408621</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1306821554899216</v>
+        <v>0.00523726548999548</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03468627482652664</v>
+        <v>0.002437406918033957</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.04812005534768105</v>
+        <v>0.001728731556795537</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01617290079593658</v>
+        <v>0.0006551180849783123</v>
       </c>
       <c r="S11" t="n">
-        <v>0.002161959186196327</v>
+        <v>1.056031760526821e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001945060444995761</v>
+        <v>0.002618669532239437</v>
       </c>
       <c r="U11" t="n">
-        <v>0.00282750534825027</v>
+        <v>0.000900385610293597</v>
       </c>
       <c r="V11" t="n">
-        <v>0.01317805051803589</v>
+        <v>0.001766992150805891</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0002073155483230948</v>
+        <v>0.001647328725084662</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02770504355430603</v>
+        <v>0.00166221137624234</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.01088833250105381</v>
+        <v>0.0004959714715369046</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.003604686819016933</v>
+        <v>0.0001504659012425691</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01030338183045387</v>
+        <v>0.001214835559949279</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.002501072362065315</v>
+        <v>0.000441623036749661</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01002825796604156</v>
+        <v>0.001859307056292892</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.004829589743167162</v>
+        <v>0.0009127240628004074</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.01769634708762169</v>
+        <v>0.001252115122042596</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.03873473405838013</v>
+        <v>7.792341057211161e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.02198476158082485</v>
+        <v>0.0004462833167053759</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.01181287877261639</v>
+        <v>0.002258351305499673</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.03294847905635834</v>
+        <v>0.0008382449159398675</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01047548092901707</v>
+        <v>0.0003319043607916683</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.010252152569592</v>
+        <v>0.001830107066780329</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0105454595759511</v>
+        <v>0.001281441887840629</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.01831310987472534</v>
+        <v>0.0004279325075913221</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.008783693425357342</v>
+        <v>0.0007162416586652398</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.006499199196696281</v>
+        <v>0.001362131792120636</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.02488435618579388</v>
+        <v>0.0002866929862648249</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.003240210469812155</v>
+        <v>0.0006357543752528727</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.003533825743943453</v>
+        <v>0.0001132854667957872</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.00317201716825366</v>
+        <v>0.0004420194018166512</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.01033838000148535</v>
+        <v>0.002886825241148472</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.03480906784534454</v>
+        <v>0.00802470650523901</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.02383661642670631</v>
+        <v>0.00138940813485533</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.005177914164960384</v>
+        <v>0.001823941478505731</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.01208934839814901</v>
+        <v>0.001329444814473391</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.04244711622595787</v>
+        <v>0.00248619494959712</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.005994940176606178</v>
+        <v>0.0006150685367174447</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0341208316385746</v>
+        <v>0.002584919333457947</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.009961509145796299</v>
+        <v>0.0006970418617129326</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.003442855086177588</v>
+        <v>0.0004985124105587602</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.006339424755424261</v>
+        <v>0.0007646391750313342</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.01293943077325821</v>
+        <v>0.002218615263700485</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.009669533930718899</v>
+        <v>0.001716588390991092</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.009015869349241257</v>
+        <v>0.004484527744352818</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.02909137867391109</v>
+        <v>0.001491799717769027</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.02052106708288193</v>
+        <v>0.001059900969266891</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.01474779471755028</v>
+        <v>0.004229825455695391</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.005912176333367825</v>
+        <v>0.0005440371460281312</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.005451870616525412</v>
+        <v>0.0007375844288617373</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0004672690411098301</v>
+        <v>0.003467333735898137</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.01505123265087605</v>
+        <v>0.0005507808527909219</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.01034010294824839</v>
+        <v>0.002994635608047247</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.02269287034869194</v>
+        <v>0.004363242536783218</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.02279465831816196</v>
+        <v>0.000967719592154026</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.002486498095095158</v>
+        <v>0.001705263159237802</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.01626325398683548</v>
+        <v>0.0007255171076394618</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.01003501005470753</v>
+        <v>9.068479994311929e-05</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.01412711571902037</v>
+        <v>0.0006899626459926367</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.02012119442224503</v>
+        <v>0.003924176562577486</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.007882589474320412</v>
+        <v>0.0001309365907218307</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.008783072233200073</v>
+        <v>0.0001867071841843426</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.01676200330257416</v>
+        <v>0.0007224270375445485</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.04113415256142616</v>
+        <v>4.736117261927575e-05</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.0005955081433057785</v>
+        <v>0.002315844874829054</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.005805321037769318</v>
+        <v>0.001231659669429064</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.01434342656284571</v>
+        <v>0.0004572845064103603</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.001306802732869983</v>
+        <v>0.0004164698184467852</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.003249641507863998</v>
+        <v>0.001554201007820666</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.007098897360265255</v>
+        <v>0.0004086863191332668</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.01105109974741936</v>
+        <v>0.000870519841555506</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01280789263546467</v>
+        <v>0.0004627951420843601</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.02430274151265621</v>
+        <v>0.0005905590951442719</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.006965124979615211</v>
+        <v>0.0002805307158268988</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.009783447720110416</v>
+        <v>0.0002607665373943746</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.001800619531422853</v>
+        <v>0.0001022089418256655</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.01341387070715427</v>
+        <v>0.003177868667989969</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.001932450570166111</v>
+        <v>0.003708950476720929</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.006812433246523142</v>
+        <v>0.0001667413162067533</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.007529505994170904</v>
+        <v>0.002037419704720378</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.01095748599618673</v>
+        <v>0.001987373223528266</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.03719450160861015</v>
+        <v>0.0001319569419138134</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.0177337396889925</v>
+        <v>0.0005943641881458461</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.007548084482550621</v>
+        <v>0.0009973860578611493</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.01955057680606842</v>
+        <v>0.0007440277840942144</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.002684766426682472</v>
+        <v>0.0003569571999832988</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.004746887367218733</v>
+        <v>0.0009513595141470432</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.0112776942551136</v>
+        <v>0.0005619900766760111</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.00947452150285244</v>
+        <v>0.001448936527594924</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.01432718709111214</v>
+        <v>0.0002183321776101366</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.02310066670179367</v>
+        <v>0.0004972144961357117</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.006233813241124153</v>
+        <v>0.0007799785234965384</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.01478800177574158</v>
+        <v>0.001043768366798759</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.000130849308334291</v>
+        <v>1.289480132982135e-05</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.02652020193636417</v>
+        <v>0.00191701645962894</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.02971423976123333</v>
+        <v>0.004128212109208107</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.01040347199887037</v>
+        <v>0.001030732179060578</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.004033580888062716</v>
+        <v>0.002973604016005993</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.02000901661813259</v>
+        <v>0.001877581933513284</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.02183141745626926</v>
+        <v>0.0004367324872873724</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.002731609623879194</v>
+        <v>0.002842250978574157</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.01586156152188778</v>
+        <v>0.001291693886741996</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.001402261666953564</v>
+        <v>0.001305970828980207</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.007186578586697578</v>
+        <v>0.0005431316094473004</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.007137834560126066</v>
+        <v>0.001199346268549562</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0049813287332654</v>
+        <v>0.001507555251009762</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0124561870470643</v>
+        <v>0.0006821159622631967</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0001679808192420751</v>
+        <v>0.001449394854716957</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.008732225745916367</v>
+        <v>0.0009706910350359976</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.00283819786272943</v>
+        <v>0.000899611331988126</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.009361913427710533</v>
+        <v>0.0004295666294638067</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.004536816850304604</v>
+        <v>0.0002502430870663375</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.004834702238440514</v>
+        <v>0.0004453864821698517</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.007404734380543232</v>
+        <v>0.0002419279771856964</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.008337742649018764</v>
+        <v>0.001239013974554837</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.009543568827211857</v>
+        <v>0.001513163791969419</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.002828729804605246</v>
+        <v>0.0006968075758777559</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.004197615198791027</v>
+        <v>0.0001861707132775337</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.01326672360301018</v>
+        <v>0.0004422257479745895</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.003058142028748989</v>
+        <v>0.0004036977479699999</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.008843417279422283</v>
+        <v>0.0009068772196769714</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.003825738560408354</v>
+        <v>0.00126230507157743</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.004496761597692966</v>
+        <v>0.0007323193713091314</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.005688688717782497</v>
+        <v>4.796728171641007e-05</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.003807686269283295</v>
+        <v>0.0009380832780152559</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.03310361877083778</v>
+        <v>0.0001882753131212667</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.03224039822816849</v>
+        <v>0.0002176272973883897</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.003759118728339672</v>
+        <v>0.0008927431190386415</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.01483239606022835</v>
+        <v>0.000291006697807461</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.004786734003573656</v>
+        <v>0.0001454457233194262</v>
       </c>
       <c r="EO11" t="n">
-        <v>5.268619861453772e-05</v>
+        <v>0.001394988736137748</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.01183425262570381</v>
+        <v>0.0005101441056467593</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.0002137307019438595</v>
+        <v>0.0008309271070174873</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0009296317584812641</v>
+        <v>0.0003645380493253469</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.01067137345671654</v>
+        <v>0.0003990707919001579</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.03179023414850235</v>
+        <v>0.0002511373604647815</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.006484171375632286</v>
+        <v>0.0007856368902139366</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.004224710166454315</v>
+        <v>0.001271406770683825</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.006028640083968639</v>
+        <v>0.0004675303352996707</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0005664038471877575</v>
+        <v>0.0001314776018261909</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.004289176780730486</v>
+        <v>0.0007317421259358525</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.01156832557171583</v>
+        <v>0.0002665619249455631</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.007702280301600695</v>
+        <v>0.0006590617122128606</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.01116298884153366</v>
+        <v>0.0002567599003668875</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.02608730830252171</v>
+        <v>0.0006637499900534749</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.00467132031917572</v>
+        <v>0.0005217139259912074</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.01338960696011782</v>
+        <v>0.0001790516980690882</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.003898420836776495</v>
+        <v>0.0003196893667336553</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.007620787713676691</v>
+        <v>0.00144678819924593</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.002039877697825432</v>
+        <v>0.001282373792491853</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.01275021210312843</v>
+        <v>0.00189221790060401</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.00780992116779089</v>
+        <v>0.000421327946241945</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.009246443398296833</v>
+        <v>0.0005699261091649532</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.006127127911895514</v>
+        <v>5.734302976634353e-05</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.003607164835557342</v>
+        <v>0.0005633403779938817</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.01113052479922771</v>
+        <v>0.000801779970061034</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.001282960176467896</v>
+        <v>0.0002681280893739313</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.01860172860324383</v>
+        <v>8.360180072486401e-05</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.01736927218735218</v>
+        <v>0.0003000234719365835</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.009431956335902214</v>
+        <v>0.0004577163781505078</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.01975001581013203</v>
+        <v>0.00287738861516118</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.00502478051930666</v>
+        <v>0.004106746520847082</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.02627609670162201</v>
+        <v>0.0002386929409112781</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.01073537021875381</v>
+        <v>0.000659424695186317</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.01046786364167929</v>
+        <v>0.002541920635849237</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.004260886926203966</v>
+        <v>0.0002472384367138147</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.01539200358092785</v>
+        <v>0.001327981008216739</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.001318530878052115</v>
+        <v>0.001774442382156849</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.009212956763803959</v>
+        <v>0.0001871963031589985</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.004248540848493576</v>
+        <v>0.002880624029785395</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.003773391479626298</v>
+        <v>0.0006050095544196665</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.0165654756128788</v>
+        <v>0.0005659881280735135</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.009105276316404343</v>
+        <v>0.002891086507588625</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.01553954184055328</v>
+        <v>0.001852330751717091</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.004499598406255245</v>
+        <v>0.001569980289787054</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.01181048341095448</v>
+        <v>8.766460814513266e-05</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08317539840936661</v>
+        <v>0.001786738284863532</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01099010463804007</v>
+        <v>9.870631038211286e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01311140600591898</v>
+        <v>0.001039296388626099</v>
       </c>
       <c r="E12" t="n">
-        <v>0.02401832118630409</v>
+        <v>0.0003799956466536969</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07478960603475571</v>
+        <v>0.0004726718179881573</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009746522642672062</v>
+        <v>4.473273293115199e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01159498188644648</v>
+        <v>0.0002200023009208962</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001847407082095742</v>
+        <v>0.0001451318676117808</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001363208517432213</v>
+        <v>2.252677222713828e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0762387216091156</v>
+        <v>0.001342330244369805</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003869363106787205</v>
+        <v>3.66157473763451e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0.001024127937853336</v>
+        <v>0.0008630123338662088</v>
       </c>
       <c r="N12" t="n">
-        <v>0.001845440827310085</v>
+        <v>0.00032248449861072</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07332940399646759</v>
+        <v>0.0004830031248275191</v>
       </c>
       <c r="P12" t="n">
-        <v>0.003532191272825003</v>
+        <v>1.603603595867753e-05</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.009449666365981102</v>
+        <v>0.0001450210984330624</v>
       </c>
       <c r="R12" t="n">
-        <v>0.00594700500369072</v>
+        <v>0.0003341247502248734</v>
       </c>
       <c r="S12" t="n">
-        <v>0.003710315097123384</v>
+        <v>7.377841393463314e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>0.003974790219217539</v>
+        <v>0.000127586186863482</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0007988724391907454</v>
+        <v>0.0002618432627059519</v>
       </c>
       <c r="V12" t="n">
-        <v>0.008725622668862343</v>
+        <v>0.0003727749863173813</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0141734667122364</v>
+        <v>0.0001894715533126146</v>
       </c>
       <c r="X12" t="n">
-        <v>0.000992367509752512</v>
+        <v>0.0002019602688960731</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.002428163308650255</v>
+        <v>2.8057587769581e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.01405374892055988</v>
+        <v>0.0001002678327495232</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01208896655589342</v>
+        <v>1.034167871694081e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01028105430305004</v>
+        <v>6.828044570283964e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.01673297956585884</v>
+        <v>6.125990330474451e-05</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.0001979703665710986</v>
+        <v>0.0002857870131265372</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.002058251760900021</v>
+        <v>0.0004278169653844088</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.002559502609074116</v>
+        <v>2.89620365947485e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.007319164462387562</v>
+        <v>0.0004093866446055472</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.005179538391530514</v>
+        <v>1.786562279448844e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.000459307455457747</v>
+        <v>0.0002559603308327496</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.013550641015172</v>
+        <v>0.0003437657142058015</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.001892747124657035</v>
+        <v>0.0001291898952331394</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.00899590365588665</v>
+        <v>0.0001815228315535933</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.002816706895828247</v>
+        <v>4.348466609371826e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.01111694797873497</v>
+        <v>3.115586878266186e-06</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.007385233882814646</v>
+        <v>3.876977280015126e-05</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.01168609783053398</v>
+        <v>0.0002666341897565871</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.003518437501043081</v>
+        <v>0.0001271821529371664</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.00410307664424181</v>
+        <v>2.521768328733742e-05</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.002957301214337349</v>
+        <v>7.048649422358721e-05</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.004501543007791042</v>
+        <v>0.0001008178805932403</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.02704428881406784</v>
+        <v>0.001062760245986283</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.01084224600344896</v>
+        <v>0.0001063664822140709</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.008497007191181183</v>
+        <v>5.398225403041579e-05</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.02078235894441605</v>
+        <v>0.0001542518002679572</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.03836728259921074</v>
+        <v>0.0001817148004192859</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.003539803205057979</v>
+        <v>0.0002767693367786705</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.001838561380282044</v>
+        <v>0.0002390206063864753</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.001788171590305865</v>
+        <v>2.453320485074073e-05</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.01181113533675671</v>
+        <v>1.923676245496608e-05</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.02669858187437057</v>
+        <v>0.0002089165354846045</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.004381893202662468</v>
+        <v>0.0003682398237287998</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.006644129753112793</v>
+        <v>0.0007445885566994548</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.005714808590710163</v>
+        <v>0.0005087887984700501</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.002443758770823479</v>
+        <v>0.0003364691801834852</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.001784232910722494</v>
+        <v>0.0003919337468687445</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.004699202720075846</v>
+        <v>0.0001887865655589849</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.01318124681711197</v>
+        <v>3.127545278402977e-05</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.002034362871199846</v>
+        <v>0.0003718839725479484</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.004812845960259438</v>
+        <v>0.0001260703720618039</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.002608380746096373</v>
+        <v>0.0001075929976650514</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.0008235792629420757</v>
+        <v>0.0002519631816539913</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.01363522838801146</v>
+        <v>0.0002261994668515399</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.02010631747543812</v>
+        <v>0.0001449475530534983</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.005006904248148203</v>
+        <v>0.0002375594631303102</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.009729528799653053</v>
+        <v>5.559964120038785e-05</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.005210382863879204</v>
+        <v>0.0001235524250660092</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.007076513022184372</v>
+        <v>0.0001406888623023406</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.01061626709997654</v>
+        <v>0.000739903945941478</v>
       </c>
       <c r="BW12" t="n">
-        <v>2.868486626539379e-05</v>
+        <v>4.471930878935382e-05</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.002917173551395535</v>
+        <v>9.386540477862582e-05</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.02104996144771576</v>
+        <v>2.070681694021914e-05</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.04290708526968956</v>
+        <v>0.0005085127195343375</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.00729930168017745</v>
+        <v>0.0002935542142949998</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.007499176077544689</v>
+        <v>1.111376332119107e-05</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.0009790168842300773</v>
+        <v>0.0001434807054465637</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.005186682567000389</v>
+        <v>0.0001291753578698263</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.01596782729029655</v>
+        <v>0.0002651732938829809</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.002188944956287742</v>
+        <v>2.457556547597051e-05</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.005650549195706844</v>
+        <v>0.0002073658251902089</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.002530892379581928</v>
+        <v>1.4343359907798e-05</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.01227119565010071</v>
+        <v>0.0001256255200132728</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.001919053262099624</v>
+        <v>5.876259092474356e-05</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.000192820793017745</v>
+        <v>2.232605947938282e-05</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.001140830921940506</v>
+        <v>7.087317499099299e-05</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.0009691999293863773</v>
+        <v>0.0001368981902487576</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.01442278735339642</v>
+        <v>0.0001544863916933537</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.002745723351836205</v>
+        <v>0.000143019889947027</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.004858736880123615</v>
+        <v>0.0002733667206484824</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.004740159958600998</v>
+        <v>0.0001859322801465169</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.00603480264544487</v>
+        <v>0.0002163054014090449</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.007273284718394279</v>
+        <v>0.00029861691291444</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.006869430653750896</v>
+        <v>0.0001412906276527792</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.02310642227530479</v>
+        <v>1.17153613246046e-05</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.005454794969409704</v>
+        <v>0.0001064856769517064</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.0140446163713932</v>
+        <v>0.0002013851044466719</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.001766771893016994</v>
+        <v>4.651908966479823e-05</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.007294999435544014</v>
+        <v>0.0001995501370402053</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.0008520998526364565</v>
+        <v>7.683854346396402e-05</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.0118631524965167</v>
+        <v>0.0001210847694892436</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.003818325931206346</v>
+        <v>7.772003300487995e-05</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.0007290818030014634</v>
+        <v>5.535559466807172e-05</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.003883114783093333</v>
+        <v>9.398183465236798e-06</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.02752122282981873</v>
+        <v>4.413726856000721e-06</v>
       </c>
       <c r="DF12" t="n">
-        <v>2.549751661717892e-05</v>
+        <v>0.000770165934227407</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.02016508020460606</v>
+        <v>0.0003815925447270274</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.01125405821949244</v>
+        <v>0.000971477827988565</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.02384254708886147</v>
+        <v>3.998012834927067e-05</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.01479239203035831</v>
+        <v>1.284071913687512e-05</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.005117030348628759</v>
+        <v>0.0002380920777795836</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.00507064163684845</v>
+        <v>0.0004398900782689452</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.01071918196976185</v>
+        <v>4.472472937777638e-05</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.007316607981920242</v>
+        <v>0.0003575912560336292</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.003939774818718433</v>
+        <v>0.0001802736223908141</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.006223011296242476</v>
+        <v>4.513185558607802e-05</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.003648183774203062</v>
+        <v>0.0007256854441948235</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.0009857499971985817</v>
+        <v>2.169505023630336e-06</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0004954105243086815</v>
+        <v>0.0004614857607521117</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.003178055165335536</v>
+        <v>0.0001122823668993078</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0008060119580477476</v>
+        <v>0.0001644136500544846</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.004151882138103247</v>
+        <v>0.0002883936394937336</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.0117444321513176</v>
+        <v>1.46808033605339e-05</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.006056476384401321</v>
+        <v>0.0001121138629969209</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.0162978507578373</v>
+        <v>2.195279375882819e-05</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.0007823278428986669</v>
+        <v>1.940791116794571e-05</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.003636426758021116</v>
+        <v>9.013085218612105e-05</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.008021706715226173</v>
+        <v>6.351569027174264e-05</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.008265656419098377</v>
+        <v>8.277523011201993e-05</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.00526956282556057</v>
+        <v>3.629179991548881e-05</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.01426377147436142</v>
+        <v>0.0002742802025750279</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.004511729348450899</v>
+        <v>6.367247988237068e-05</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.02653688192367554</v>
+        <v>0.0001612884516362101</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.01385819725692272</v>
+        <v>7.910901331342757e-05</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.002030506730079651</v>
+        <v>0.0002601831511128694</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.01453278958797455</v>
+        <v>0.0001378355518681929</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.0128301614895463</v>
+        <v>0.0002414795890217647</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.001951129524968565</v>
+        <v>7.8078024671413e-05</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.00594421336427331</v>
+        <v>0.0001359430607408285</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.001169616123661399</v>
+        <v>2.786088953143917e-05</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.0003501540049910545</v>
+        <v>2.013976336456835e-05</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.004499667789787054</v>
+        <v>8.380480721825734e-06</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.003027481725439429</v>
+        <v>0.0002448521263431758</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.000933220493607223</v>
+        <v>0.0001493062591180205</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.000460929935798049</v>
+        <v>7.24681158317253e-05</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.006058450322598219</v>
+        <v>0.0007932981825433671</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.006049167364835739</v>
+        <v>6.685235712211579e-05</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.002247899770736694</v>
+        <v>5.891792898182757e-05</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.002484813798218966</v>
+        <v>0.0001961019006557763</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.006042564287781715</v>
+        <v>0.0001629014150239527</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.01398678682744503</v>
+        <v>0.0002267359086545184</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.001696297433227301</v>
+        <v>1.433560191799188e-05</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.005369938910007477</v>
+        <v>0.000205799748073332</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.003065355820581317</v>
+        <v>2.189858423662372e-05</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.01349078770726919</v>
+        <v>0.0001436485472368076</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.002947607776150107</v>
+        <v>0.0001219085534103215</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.001605458906851709</v>
+        <v>2.9000253562117e-05</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.00325100589543581</v>
+        <v>5.373399744712515e-06</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.0004387390799820423</v>
+        <v>7.603953417856246e-05</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.004202431067824364</v>
+        <v>0.0003377290850039572</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.003315094392746687</v>
+        <v>8.517147216480225e-05</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.01073425449430943</v>
+        <v>7.484798697987571e-05</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.0006072742398828268</v>
+        <v>4.977643766324036e-05</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.01165620237588882</v>
+        <v>0.0001587465812917799</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.002850612625479698</v>
+        <v>9.209741983795539e-05</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.005114035215228796</v>
+        <v>0.0001041073119267821</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.0001681051217019558</v>
+        <v>0.0003015320980921388</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.003362350864335895</v>
+        <v>0.0003406261093914509</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.0168619267642498</v>
+        <v>4.119679215364158e-05</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.005209493450820446</v>
+        <v>0.0005694996798411012</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.01489453017711639</v>
+        <v>0.0001024410230456851</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.007119720801711082</v>
+        <v>0.0006959004676900804</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.02163778990507126</v>
+        <v>1.347967918263748e-05</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.002153803827241063</v>
+        <v>0.0003309909370727837</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.003106875577941537</v>
+        <v>3.487047797534615e-05</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.000150138046592474</v>
+        <v>0.0001026796599035151</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.01642083376646042</v>
+        <v>0.0001149109884863719</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.0008864038391038775</v>
+        <v>6.498173752333969e-05</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.004187845624983311</v>
+        <v>0.000130480868392624</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.00130732893012464</v>
+        <v>6.477900024037808e-05</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.003186675719916821</v>
+        <v>0.0004471438005566597</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.001621814211830497</v>
+        <v>0.000315663666697219</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.006997766904532909</v>
+        <v>0.0004667126922868192</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.004920167848467827</v>
+        <v>0.000271512137260288</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.001938515109941363</v>
+        <v>0.0002893017081078142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.006303071975708008</v>
+        <v>0.003637761110439897</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06241951882839203</v>
+        <v>0.009370582178235054</v>
       </c>
       <c r="C13" t="n">
-        <v>0.009629005566239357</v>
+        <v>0.002712933113798499</v>
       </c>
       <c r="D13" t="n">
-        <v>0.04173238202929497</v>
+        <v>0.006992776412516832</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01075359340757132</v>
+        <v>0.002021302236244082</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03994955867528915</v>
+        <v>0.0009575951262377203</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01350075751543045</v>
+        <v>0.002252847421914339</v>
       </c>
       <c r="H13" t="n">
-        <v>0.005608110222965479</v>
+        <v>0.001562823774293065</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03045511618256569</v>
+        <v>0.0002366331464145333</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00466578733175993</v>
+        <v>0.004861998837441206</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07047437131404877</v>
+        <v>0.008110152557492256</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0110445749014616</v>
+        <v>0.001636975677683949</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02262899465858936</v>
+        <v>0.005110045429319143</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01918854005634785</v>
+        <v>0.0008722128113731742</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02292683534324169</v>
+        <v>0.00222791638225317</v>
       </c>
       <c r="P13" t="n">
-        <v>0.02976558543741703</v>
+        <v>0.001105625415220857</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01021294575184584</v>
+        <v>0.003460514126345515</v>
       </c>
       <c r="R13" t="n">
-        <v>0.02608091197907925</v>
+        <v>0.0006537887966260314</v>
       </c>
       <c r="S13" t="n">
-        <v>0.00892206933349371</v>
+        <v>0.001075427164323628</v>
       </c>
       <c r="T13" t="n">
-        <v>0.009487714618444443</v>
+        <v>0.001717674895189703</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0007670265622437</v>
+        <v>0.000505558040458709</v>
       </c>
       <c r="V13" t="n">
-        <v>0.008005853742361069</v>
+        <v>0.001573743647895753</v>
       </c>
       <c r="W13" t="n">
-        <v>0.02168994769454002</v>
+        <v>0.001057093963027</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0006754673086106777</v>
+        <v>0.0003562960773706436</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.001289249397814274</v>
+        <v>0.001136172679252923</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.004578518681228161</v>
+        <v>0.0002544808376114815</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.01028373837471008</v>
+        <v>0.001254830160178244</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.003011332824826241</v>
+        <v>0.0002662557526491582</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.002721373923122883</v>
+        <v>0.002307188231498003</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.001822591992095113</v>
+        <v>0.0003613789158407599</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.01316729933023453</v>
+        <v>0.0003333644126541913</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.005969373974949121</v>
+        <v>0.0003127947566099465</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.01872592233121395</v>
+        <v>0.001074599684216082</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.008897844702005386</v>
+        <v>0.001481088576838374</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.01686381548643112</v>
+        <v>0.0005662526236847043</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.002652405994012952</v>
+        <v>0.0006978820310905576</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.002884390531107783</v>
+        <v>0.0004471091669984162</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.002894539851695299</v>
+        <v>0.001073380466550589</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.002892692107707262</v>
+        <v>0.0002820712979882956</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.01232371665537357</v>
+        <v>0.0009332777699455619</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.008929704315960407</v>
+        <v>0.0006057146238163114</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.004207063466310501</v>
+        <v>0.0006717246142216027</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.005142546258866787</v>
+        <v>9.09450463950634e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.006046637427061796</v>
+        <v>0.0002558222913648933</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.005365290213376284</v>
+        <v>0.0006238581845536828</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.00140551058575511</v>
+        <v>0.001347802812233567</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.02246465720236301</v>
+        <v>0.0039629559032619</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.008629164658486843</v>
+        <v>0.001615933608263731</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.01354938093572855</v>
+        <v>0.001958383247256279</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.02390082739293575</v>
+        <v>0.001146082300692797</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.01089314930140972</v>
+        <v>0.00107498187571764</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.008266396820545197</v>
+        <v>0.0001831768313422799</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.004206066951155663</v>
+        <v>0.0009092308464460075</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.009625092148780823</v>
+        <v>0.001502083265222609</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.01242824178189039</v>
+        <v>0.003996412269771099</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.01346804108470678</v>
+        <v>0.002463390585035086</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.002127709332853556</v>
+        <v>0.001627207617275417</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.02699460461735725</v>
+        <v>0.001071306993253529</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.01551555003970861</v>
+        <v>0.003458452876657248</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.00271256547421217</v>
+        <v>4.54012188129127e-05</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.009454844519495964</v>
+        <v>8.333751611644402e-05</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.006550043355673552</v>
+        <v>0.004779931157827377</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.006113796029239893</v>
+        <v>0.0001522533420938998</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.005398290231823921</v>
+        <v>5.960202543064952e-05</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.007626831065863371</v>
+        <v>0.001256404211744666</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.001212678384035826</v>
+        <v>0.0003936212160624564</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.01778758130967617</v>
+        <v>0.001567097846418619</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.01046970020979643</v>
+        <v>0.0007540893857367337</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.008608409203588963</v>
+        <v>0.0004291333607397974</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.006745433434844017</v>
+        <v>3.170251147821546e-06</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.005371232517063618</v>
+        <v>6.94650734658353e-05</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.00894545391201973</v>
+        <v>0.0004124552360735834</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.004013162571936846</v>
+        <v>0.001465937471948564</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0106121338903904</v>
+        <v>0.001853113179095089</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0095701664686203</v>
+        <v>0.001895142020657659</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.02150827646255493</v>
+        <v>0.001668121665716171</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01382964663207531</v>
+        <v>0.0002288428513566032</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.02366071380674839</v>
+        <v>0.0001531832385808229</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.005625768564641476</v>
+        <v>0.001119241467677057</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.005774431861937046</v>
+        <v>0.00125212105922401</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.001209038775414228</v>
+        <v>0.002170397667214274</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0003240047954022884</v>
+        <v>0.0007842627237550914</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.01082368101924658</v>
+        <v>0.001593487919308245</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.001371571444906294</v>
+        <v>0.0005228095105849206</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.006481760181486607</v>
+        <v>0.0008114443626254797</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.001517172087915242</v>
+        <v>0.0005937068490311503</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.003422983456403017</v>
+        <v>2.521570058888756e-05</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0001787838991731405</v>
+        <v>0.0001728642382659018</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.001684600254520774</v>
+        <v>0.0001880371564766392</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.002019545994699001</v>
+        <v>0.001300011994317174</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.002155304653570056</v>
+        <v>0.0005726416129618883</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.01003141887485981</v>
+        <v>0.0007128420402295887</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.001549277454614639</v>
+        <v>0.0002937648387160152</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.02523506805300713</v>
+        <v>0.001542267389595509</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.002225910313427448</v>
+        <v>0.000589338771533221</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0007288842462003231</v>
+        <v>0.0006280631059780717</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0008927190210670233</v>
+        <v>0.002028240589424968</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.009308934211730957</v>
+        <v>0.001668871147558093</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.02428853325545788</v>
+        <v>0.0003019589348696172</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0008029094897210598</v>
+        <v>0.0007325385231524706</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.008739384822547436</v>
+        <v>0.001392842154018581</v>
       </c>
       <c r="CX13" t="n">
-        <v>8.056499063968658e-05</v>
+        <v>0.0008477261872030795</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.003835955401882529</v>
+        <v>0.0013158586807549</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0001645719021325931</v>
+        <v>0.0006149160908535123</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.006657131947577</v>
+        <v>0.0001513566530775279</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0008632263634353876</v>
+        <v>8.653292752569541e-05</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0001550392480567098</v>
+        <v>0.0001139016894740053</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.001155643491074443</v>
+        <v>0.001180918421596289</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.006171631626784801</v>
+        <v>0.0005505774170160294</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.02425297349691391</v>
+        <v>0.003539283061400056</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.01099531538784504</v>
+        <v>0.001040932373143733</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.001185022527351975</v>
+        <v>0.004443579819053411</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0198949221521616</v>
+        <v>0.0005328202387318015</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.005587373394519091</v>
+        <v>0.001352062681689858</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0001222589053213596</v>
+        <v>0.003197374287992716</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.003046351252123713</v>
+        <v>0.002423298545181751</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.009108169004321098</v>
+        <v>0.0003443943278398365</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.001024293596856296</v>
+        <v>0.0006473750690929592</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.001610259991139174</v>
+        <v>0.0002769241400528699</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.002929419744759798</v>
+        <v>0.0005050295731052756</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.006065647583454847</v>
+        <v>0.0002147078484995291</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.01449302583932877</v>
+        <v>0.0009536162251606584</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.007018010132014751</v>
+        <v>0.0002535475650802255</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.003562659723684192</v>
+        <v>0.0008927025482989848</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.02286040969192982</v>
+        <v>0.00037793317460455</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.03114509023725986</v>
+        <v>0.0006328641902655363</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.002433763351291418</v>
+        <v>4.088261630386114e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.007449320517480373</v>
+        <v>0.0004501552903093398</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.005412559024989605</v>
+        <v>0.001472890260629356</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.004284644033759832</v>
+        <v>0.0008050636388361454</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0008836220949888229</v>
+        <v>4.037785402033478e-06</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.00418686680495739</v>
+        <v>0.0006646105321124196</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.004190774634480476</v>
+        <v>0.0003073582192882895</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.00134979363065213</v>
+        <v>0.0009372593485750258</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.01119784452021122</v>
+        <v>0.0007340176380239427</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.0003896406851708889</v>
+        <v>0.0002161002339562401</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.01764642633497715</v>
+        <v>0.001646044314838946</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.01483029127120972</v>
+        <v>0.0002679052413441241</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.01163731142878532</v>
+        <v>0.0009103810298256576</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.004737881477922201</v>
+        <v>0.0002884630230255425</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.001153317280113697</v>
+        <v>0.0002544250746723264</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.004216995090246201</v>
+        <v>0.0002190591767430305</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.002284219488501549</v>
+        <v>0.0004980251542292535</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.001744366134516895</v>
+        <v>0.001696521765552461</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.006459597963839769</v>
+        <v>0.0005102815921418369</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.007155328989028931</v>
+        <v>0.001449955278076231</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.002551876939833164</v>
+        <v>0.0007121245143935084</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.01360172219574451</v>
+        <v>0.0005455994978547096</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.01058762520551682</v>
+        <v>0.0002938881516456604</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0008467562729492784</v>
+        <v>0.0002031426411122084</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.003030007239431143</v>
+        <v>0.0006895513506606221</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.01298322807997465</v>
+        <v>0.000215680236578919</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.006894094869494438</v>
+        <v>0.0005146603216417134</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0002369202557019889</v>
+        <v>0.0004514154279604554</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.01195633597671986</v>
+        <v>0.001564140780828893</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.001573158660903573</v>
+        <v>0.0005784640088677406</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.005189392250031233</v>
+        <v>0.001156442565843463</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.003026809077709913</v>
+        <v>0.0004928705166094005</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.008549029007554054</v>
+        <v>0.0001989565207622945</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.001555282156914473</v>
+        <v>0.0001258003176189959</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.003027216298505664</v>
+        <v>9.238874918082729e-05</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0002133590169250965</v>
+        <v>0.001618185546249151</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.01030776742845774</v>
+        <v>0.0002769686398096383</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.01537589728832245</v>
+        <v>0.0002153332170564681</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.008018132299184799</v>
+        <v>0.0006626716931350529</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.009774336591362953</v>
+        <v>0.001655433443374932</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.002077756216749549</v>
+        <v>0.0001015994785120711</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.006233521271497011</v>
+        <v>0.001045346725732088</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.00671302480623126</v>
+        <v>0.0001014992158161476</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.009034116752445698</v>
+        <v>0.0005008933367207646</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.01317346375435591</v>
+        <v>0.001168946851976216</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0132516035810113</v>
+        <v>0.0004003139911219478</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.002583507914096117</v>
+        <v>0.0006873662932775915</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.003011062741279602</v>
+        <v>0.002660768572241068</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.008689967915415764</v>
+        <v>0.001718963147141039</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.006333549506962299</v>
+        <v>0.0006335775251500309</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.01237435638904572</v>
+        <v>0.0002579376450739801</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0002276905725011602</v>
+        <v>0.000247559801209718</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0009203573572449386</v>
+        <v>0.0007533543976023793</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.005533072166144848</v>
+        <v>0.001351053942926228</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.001040845992974937</v>
+        <v>0.001310058520175517</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.003333160420879722</v>
+        <v>0.0006568435346707702</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.001317374175414443</v>
+        <v>0.0002742279903031886</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.00814797542989254</v>
+        <v>9.296754433307797e-05</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.01004965323954821</v>
+        <v>0.0005941151175647974</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.01581048220396042</v>
+        <v>0.001414127531461418</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.01459062471985817</v>
+        <v>0.00367822777479887</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.007929946295917034</v>
+        <v>0.0003636680776253343</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.01098917797207832</v>
+        <v>0.0002918258542194963</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.02981805801391602</v>
+        <v>0.0001394295977661386</v>
       </c>
       <c r="B14" t="n">
-        <v>0.009181707166135311</v>
+        <v>1.80472488864325e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.005131169222295284</v>
+        <v>1.461202373320702e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02356931008398533</v>
+        <v>3.115511208306998e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01392355188727379</v>
+        <v>0.0001105163973988965</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008012872422114015</v>
+        <v>1.811741458368488e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>0.003775171469897032</v>
+        <v>3.335367364343256e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.004880264867097139</v>
+        <v>1.819655699364375e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>0.004219848196953535</v>
+        <v>5.535543550649891e-06</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03000274673104286</v>
+        <v>0.0001319081202382222</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002063634339720011</v>
+        <v>1.188560645459802e-06</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0128291891887784</v>
+        <v>3.736022699740715e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01512235309928656</v>
+        <v>5.868650077900384e-06</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01573656871914864</v>
+        <v>0.0001013706933008507</v>
       </c>
       <c r="O14" t="n">
-        <v>0.005645579658448696</v>
+        <v>5.397948370955419e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>0.006363140419125557</v>
+        <v>3.982935231761076e-05</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.009102583862841129</v>
+        <v>1.390840679960093e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>0.002279311418533325</v>
+        <v>1.811579022614751e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0006308285519480705</v>
+        <v>2.771802428469528e-06</v>
       </c>
       <c r="T14" t="n">
-        <v>0.000725789344869554</v>
+        <v>2.644033520482481e-05</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0005137270782142878</v>
+        <v>5.347379101294791e-06</v>
       </c>
       <c r="V14" t="n">
-        <v>0.001893594744615257</v>
+        <v>2.132415102096274e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>0.007143395952880383</v>
+        <v>8.33458670967957e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>0.001415178296156228</v>
+        <v>1.084928589989431e-05</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.006581482943147421</v>
+        <v>2.362512532272376e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.001597917056642473</v>
+        <v>2.123275044141337e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.000418678333517164</v>
+        <v>9.77498621068662e-06</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.002734694397076964</v>
+        <v>2.442159166093916e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.002216827357187867</v>
+        <v>2.537127329560462e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.002141907112672925</v>
+        <v>1.174903536593774e-05</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.0004937062039971352</v>
+        <v>1.934523061208893e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.002774165477603674</v>
+        <v>2.14092342503136e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.006907705217599869</v>
+        <v>2.592469172668643e-08</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.002609760267660022</v>
+        <v>7.404560165014118e-06</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.0108478544279933</v>
+        <v>2.545019196986686e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.00129953701980412</v>
+        <v>1.764724038366694e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.007847033441066742</v>
+        <v>3.944286072510295e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.002768504898995161</v>
+        <v>9.492993740423117e-06</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.001767233479768038</v>
+        <v>8.395653821935412e-06</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.004608544055372477</v>
+        <v>2.448634222673718e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.001488232053816319</v>
+        <v>1.994526974158362e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.005109124816954136</v>
+        <v>2.725194008235121e-06</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0003157234750688076</v>
+        <v>7.452098543581087e-06</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.00473408866673708</v>
+        <v>3.088697121711448e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.000615616561844945</v>
+        <v>4.558327418635599e-06</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.01390639692544937</v>
+        <v>9.903056343318895e-05</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.002569979522377253</v>
+        <v>4.524826181295794e-06</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.002908369991928339</v>
+        <v>1.43562838275102e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.01074345782399178</v>
+        <v>3.216736513422802e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.007486975286155939</v>
+        <v>0.0001119832886615768</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.01258348766714334</v>
+        <v>1.681010508036707e-05</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.007406463380903006</v>
+        <v>5.065239292889601e-06</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.00805587787181139</v>
+        <v>5.754403173341416e-05</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.001077268738299608</v>
+        <v>2.087617758661509e-07</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.007755280006676912</v>
+        <v>3.087110962951556e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.0005452547920867801</v>
+        <v>4.447606625035405e-05</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.0040196618065238</v>
+        <v>3.152597855660133e-05</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.001599442330189049</v>
+        <v>1.318434169661487e-05</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.001493397168815136</v>
+        <v>9.722040886117611e-06</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.003848879830911756</v>
+        <v>1.836715455283411e-05</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.00841120257973671</v>
+        <v>2.329170456505381e-05</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.01245369203388691</v>
+        <v>1.78054760908708e-05</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.002615877659991384</v>
+        <v>1.886161226138938e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.003582716453820467</v>
+        <v>8.699477803020272e-06</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.001637393026612699</v>
+        <v>1.554131813463755e-05</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.001343508716672659</v>
+        <v>1.180712024506647e-05</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.000384896295145154</v>
+        <v>1.497891025792342e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.008432574570178986</v>
+        <v>1.885851452243514e-05</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.002469809725880623</v>
+        <v>6.734504950145492e-06</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.002707158681005239</v>
+        <v>3.154212890876806e-06</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.003718109335750341</v>
+        <v>1.359366797260009e-05</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.002371802227571607</v>
+        <v>1.497624089097371e-05</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.01211100816726685</v>
+        <v>3.87747677450534e-05</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.001814561197534204</v>
+        <v>2.21100299313548e-06</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.003305404912680387</v>
+        <v>7.616758921358269e-07</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.01158659718930721</v>
+        <v>1.853126195783261e-05</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.004081839229911566</v>
+        <v>6.004407987347804e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.004986812826246023</v>
+        <v>1.151362903328845e-05</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.0002382334787398577</v>
+        <v>1.874062945717014e-05</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.001825230661779642</v>
+        <v>3.986569208791479e-05</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.006543164141476154</v>
+        <v>1.157173937826883e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.006496790330857038</v>
+        <v>2.359355494263582e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.002772465813905001</v>
+        <v>2.210062120866496e-05</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.001151552191004157</v>
+        <v>6.63496848574141e-07</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.003051199717447162</v>
+        <v>3.484690296318149e-06</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.002149934880435467</v>
+        <v>1.835225884860847e-05</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.0006743156700395048</v>
+        <v>1.005645060558891e-07</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.000245328526943922</v>
+        <v>7.416235348500777e-06</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.002041165251284838</v>
+        <v>1.461399187974166e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>0.001344610238447785</v>
+        <v>6.269365712796571e-06</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.004633743315935135</v>
+        <v>3.940103852073662e-06</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.003480096813291311</v>
+        <v>1.521732610854087e-05</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.001104450668208301</v>
+        <v>3.811307806245168e-06</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.003135275095701218</v>
+        <v>4.765485300595174e-06</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.01139550749212503</v>
+        <v>2.126962317561265e-05</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.006134841591119766</v>
+        <v>1.146705562860006e-05</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.002352404175326228</v>
+        <v>2.524772935430519e-05</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.01221832726150751</v>
+        <v>3.704221671796404e-05</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.004481837619096041</v>
+        <v>1.645486554480158e-05</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.006035751663148403</v>
+        <v>1.964743205462582e-05</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.002941601211205125</v>
+        <v>1.931834776769392e-05</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.001873006578534842</v>
+        <v>2.377872078795917e-06</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.001983796246349812</v>
+        <v>1.546470684843371e-07</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.0002848908770829439</v>
+        <v>2.187484278692864e-05</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.001481091952882707</v>
+        <v>1.512610538156878e-06</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.0003799141268245876</v>
+        <v>1.33814501168672e-05</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.0001685851020738482</v>
+        <v>9.09486880118493e-06</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.001161712338216603</v>
+        <v>7.785363777657039e-06</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.00154019461479038</v>
+        <v>1.996828905248549e-05</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.0158793106675148</v>
+        <v>1.982175126613583e-05</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.005355419591069221</v>
+        <v>5.002339457860216e-05</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.003490576520562172</v>
+        <v>3.043762990273535e-05</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.002567462157458067</v>
+        <v>1.776087628968526e-05</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.002581578679382801</v>
+        <v>1.250771674676798e-05</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.0007987556746229529</v>
+        <v>8.417545359407086e-06</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.003322409000247717</v>
+        <v>6.826950993854553e-05</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.001150011550635099</v>
+        <v>5.162834895600099e-06</v>
       </c>
       <c r="DN14" t="n">
-        <v>1.454574521631002e-05</v>
+        <v>8.112835530482698e-06</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.004238613415509462</v>
+        <v>1.508222521806601e-05</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.0007032155408523977</v>
+        <v>4.658319085137919e-06</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.003595284651964903</v>
+        <v>2.644202368173865e-06</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.00536126596853137</v>
+        <v>2.529833182052244e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.001174557721242309</v>
+        <v>4.811363396584056e-07</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.002200606279075146</v>
+        <v>5.452092409541365e-06</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.002228374592959881</v>
+        <v>3.290401946287602e-05</v>
       </c>
       <c r="DV14" t="n">
-        <v>3.956956788897514e-06</v>
+        <v>8.015103048819583e-06</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.0008728524553589523</v>
+        <v>1.46149886859348e-06</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.00129563151858747</v>
+        <v>3.337869929964654e-05</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.001232262817211449</v>
+        <v>3.26235067404923e-07</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0.0005481855478137732</v>
+        <v>2.846047209459357e-06</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.003045216435566545</v>
+        <v>2.717746247071773e-05</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.001791865099221468</v>
+        <v>3.884681973431725e-06</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.002685785759240389</v>
+        <v>6.182333891047165e-06</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.001940307090990245</v>
+        <v>1.239128505403642e-05</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.002485201694071293</v>
+        <v>3.306640792288817e-06</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.01230118609964848</v>
+        <v>2.375889744143933e-05</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.004060813225805759</v>
+        <v>3.072299296036363e-05</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.001132912700995803</v>
+        <v>6.000251232762821e-06</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.005584454163908958</v>
+        <v>1.699482709227595e-05</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.001336769899353385</v>
+        <v>2.610369483591057e-05</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.001856315182521939</v>
+        <v>7.499455477955053e-06</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.002714630216360092</v>
+        <v>3.766583631659159e-07</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.005448984447866678</v>
+        <v>1.729801965666411e-06</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.002424790523946285</v>
+        <v>1.036947651300579e-06</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.001722093904390931</v>
+        <v>1.213266932609258e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>6.016669794917107e-05</v>
+        <v>7.689238373131957e-06</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.004885110072791576</v>
+        <v>5.346041234588483e-06</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.001925170654430985</v>
+        <v>9.061953278433066e-06</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.002883664332330227</v>
+        <v>2.40792960539693e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.001753039890900254</v>
+        <v>9.129617865255568e-06</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.001076223561540246</v>
+        <v>3.120930341538042e-05</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.002538862638175488</v>
+        <v>5.895181402593153e-06</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.0009087247308343649</v>
+        <v>4.706954769062577e-06</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.006399203091859818</v>
+        <v>1.845167753344867e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.002615568460896611</v>
+        <v>1.829385109886061e-05</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.002801935654133558</v>
+        <v>6.221441253728699e-06</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.002405134029686451</v>
+        <v>2.808495992212556e-06</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.002388076391071081</v>
+        <v>1.951011836354155e-05</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.0003843806334771216</v>
+        <v>7.051149850667571e-07</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.0009388445178046823</v>
+        <v>5.722258720197715e-06</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.001444646040908992</v>
+        <v>1.532813075755257e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.0001061458606272936</v>
+        <v>4.531390004558489e-06</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.004501647315919399</v>
+        <v>1.490684098826023e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.003880484960973263</v>
+        <v>3.61195307050366e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.001137256505899131</v>
+        <v>8.049390999076422e-06</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.006791533902287483</v>
+        <v>5.447364401334198e-06</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.001699416199699044</v>
+        <v>2.432184192002751e-05</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.002024467336013913</v>
+        <v>3.914669832738582e-06</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.0035049042198807</v>
+        <v>4.141916633670917e-06</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.006641909945756197</v>
+        <v>8.983297448139638e-06</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.002390116453170776</v>
+        <v>5.638509719574358e-06</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.003738216357305646</v>
+        <v>2.766890065686312e-05</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.01157600432634354</v>
+        <v>3.168777038808912e-05</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.003726239781826735</v>
+        <v>3.829683555522934e-05</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.004920734092593193</v>
+        <v>2.055145523627289e-05</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.004966899752616882</v>
+        <v>7.063178782118484e-05</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.003129450837150216</v>
+        <v>1.336961940978654e-05</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.003376136068254709</v>
+        <v>2.277795647387393e-05</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.007600090932101011</v>
+        <v>1.604051431058906e-05</v>
       </c>
       <c r="FX14" t="n">
-        <v>1.191521005239338e-05</v>
+        <v>1.150210027844878e-05</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.004355655983090401</v>
+        <v>9.288889486924745e-06</v>
       </c>
       <c r="FZ14" t="n">
-        <v>0.0008055754587985575</v>
+        <v>9.01883868209552e-06</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.001211202587001026</v>
+        <v>8.616207196610048e-06</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.000628860667347908</v>
+        <v>2.264671275042929e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.0001818465680116788</v>
+        <v>3.117313826805912e-05</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.0009870060021057725</v>
+        <v>2.942370338132605e-05</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.001433878322131932</v>
+        <v>2.847768519131932e-05</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.001787178334780037</v>
+        <v>1.638433423067909e-05</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.002682886552065611</v>
+        <v>6.129763278295286e-06</v>
       </c>
     </row>
   </sheetData>
